--- a/cbs1.0/20220908-海运部主单项目/海运界面 10.09.xlsx
+++ b/cbs1.0/20220908-海运部主单项目/海运界面 10.09.xlsx
@@ -123,7 +123,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1770" uniqueCount="574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1777" uniqueCount="575">
   <si>
     <t>客户托书</t>
   </si>
@@ -1850,6 +1850,9 @@
     <t>方案详情</t>
   </si>
   <si>
+    <t>必入</t>
+  </si>
+  <si>
     <t>方案描述</t>
   </si>
   <si>
@@ -2335,7 +2338,7 @@
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ hh:mm;"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="59">
+  <fonts count="54">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2364,7 +2367,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2373,20 +2376,6 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFF8F8F8"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2469,11 +2458,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="10"/>
       <name val="宋体"/>
@@ -2482,12 +2466,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -2534,13 +2512,6 @@
       <color indexed="10"/>
       <name val="Arial"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2729,7 +2700,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="45">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2852,12 +2823,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2900,12 +2865,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2913,12 +2872,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2961,12 +2914,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3493,150 +3440,150 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="32" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="15" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="15" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="32" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="32" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="32" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="32" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="19" borderId="35" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="35" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="23" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="22" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="23" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="22" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="24" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="23" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="217">
+  <cellXfs count="215">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -3677,7 +3624,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
@@ -3688,7 +3636,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
@@ -3719,17 +3667,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="10" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3737,19 +3684,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3764,7 +3711,7 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3800,7 +3747,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3812,7 +3759,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3857,216 +3804,214 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="2" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="177" fontId="19" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="2" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="177" fontId="22" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4097,38 +4042,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
@@ -4136,22 +4081,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
@@ -5579,29 +5524,29 @@
       <c r="F1" s="140"/>
       <c r="G1" s="140"/>
       <c r="H1" s="140"/>
-      <c r="I1" s="197" t="s">
+      <c r="I1" s="195" t="s">
         <v>1</v>
       </c>
       <c r="J1" s="140"/>
       <c r="K1" t="s">
         <v>2</v>
       </c>
-      <c r="AA1" s="211" t="s">
+      <c r="AA1" s="209" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="212" t="s">
+      <c r="AB1" s="210" t="s">
         <v>4</v>
       </c>
-      <c r="AC1" s="211" t="s">
+      <c r="AC1" s="209" t="s">
         <v>5</v>
       </c>
-      <c r="AD1" s="211" t="s">
+      <c r="AD1" s="209" t="s">
         <v>6</v>
       </c>
-      <c r="AE1" s="211" t="s">
+      <c r="AE1" s="209" t="s">
         <v>7</v>
       </c>
-      <c r="AF1" s="211" t="s">
+      <c r="AF1" s="209" t="s">
         <v>8</v>
       </c>
     </row>
@@ -5617,16 +5562,16 @@
       <c r="G2" s="142"/>
       <c r="H2" s="142"/>
       <c r="I2" s="142"/>
-      <c r="J2" s="198"/>
+      <c r="J2" s="196"/>
       <c r="N2" t="s">
         <v>10</v>
       </c>
-      <c r="AA2" s="211"/>
-      <c r="AB2" s="211"/>
-      <c r="AC2" s="211"/>
-      <c r="AD2" s="211"/>
-      <c r="AE2" s="211"/>
-      <c r="AF2" s="211"/>
+      <c r="AA2" s="209"/>
+      <c r="AB2" s="209"/>
+      <c r="AC2" s="209"/>
+      <c r="AD2" s="209"/>
+      <c r="AE2" s="209"/>
+      <c r="AF2" s="209"/>
     </row>
     <row r="3" ht="22.7" customHeight="1" spans="1:32">
       <c r="A3" s="143" t="s">
@@ -5641,12 +5586,12 @@
       <c r="H3" s="144"/>
       <c r="I3" s="144"/>
       <c r="J3" s="144"/>
-      <c r="AA3" s="211"/>
-      <c r="AB3" s="211"/>
-      <c r="AC3" s="211"/>
-      <c r="AD3" s="211"/>
-      <c r="AE3" s="211"/>
-      <c r="AF3" s="211"/>
+      <c r="AA3" s="209"/>
+      <c r="AB3" s="209"/>
+      <c r="AC3" s="209"/>
+      <c r="AD3" s="209"/>
+      <c r="AE3" s="209"/>
+      <c r="AF3" s="209"/>
     </row>
     <row r="4" ht="17.25" spans="1:32">
       <c r="A4" s="145" t="s">
@@ -5663,30 +5608,30 @@
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="147"/>
-      <c r="I4" s="199"/>
-      <c r="J4" s="200"/>
+      <c r="I4" s="197"/>
+      <c r="J4" s="198"/>
       <c r="N4" t="s">
         <v>16</v>
       </c>
       <c r="Z4" t="s">
         <v>17</v>
       </c>
-      <c r="AA4" s="155" t="s">
+      <c r="AA4" s="149" t="s">
         <v>18</v>
       </c>
       <c r="AB4" s="151" t="s">
         <v>19</v>
       </c>
-      <c r="AC4" s="213" t="s">
+      <c r="AC4" s="211" t="s">
         <v>20</v>
       </c>
       <c r="AD4" s="151">
         <v>1</v>
       </c>
-      <c r="AE4" s="214" t="s">
+      <c r="AE4" s="212" t="s">
         <v>21</v>
       </c>
-      <c r="AF4" s="215" t="s">
+      <c r="AF4" s="213" t="s">
         <v>22</v>
       </c>
     </row>
@@ -5705,30 +5650,30 @@
       <c r="H5" s="151" t="s">
         <v>25</v>
       </c>
-      <c r="I5" s="156"/>
-      <c r="J5" s="156"/>
+      <c r="I5" s="155"/>
+      <c r="J5" s="155"/>
       <c r="N5" t="s">
         <v>26</v>
       </c>
       <c r="Z5" t="s">
         <v>27</v>
       </c>
-      <c r="AA5" s="155" t="s">
+      <c r="AA5" s="149" t="s">
         <v>28</v>
       </c>
       <c r="AB5" s="151" t="s">
         <v>29</v>
       </c>
-      <c r="AC5" s="213" t="s">
+      <c r="AC5" s="211" t="s">
         <v>30</v>
       </c>
       <c r="AD5" s="151">
         <v>2</v>
       </c>
-      <c r="AE5" s="214" t="s">
+      <c r="AE5" s="212" t="s">
         <v>31</v>
       </c>
-      <c r="AF5" s="215" t="s">
+      <c r="AF5" s="213" t="s">
         <v>32</v>
       </c>
     </row>
@@ -5756,22 +5701,22 @@
       <c r="N6" t="s">
         <v>36</v>
       </c>
-      <c r="AA6" s="155" t="s">
+      <c r="AA6" s="149" t="s">
         <v>37</v>
       </c>
       <c r="AB6" s="151" t="s">
         <v>38</v>
       </c>
-      <c r="AC6" s="213" t="s">
+      <c r="AC6" s="211" t="s">
         <v>39</v>
       </c>
       <c r="AD6" s="151">
         <v>3</v>
       </c>
-      <c r="AE6" s="214" t="s">
+      <c r="AE6" s="212" t="s">
         <v>40</v>
       </c>
-      <c r="AF6" s="215" t="s">
+      <c r="AF6" s="213" t="s">
         <v>41</v>
       </c>
     </row>
@@ -5801,16 +5746,16 @@
       <c r="AB7" s="151" t="s">
         <v>46</v>
       </c>
-      <c r="AC7" s="213" t="s">
+      <c r="AC7" s="211" t="s">
         <v>47</v>
       </c>
       <c r="AD7" s="151">
         <v>4</v>
       </c>
-      <c r="AE7" s="214" t="s">
+      <c r="AE7" s="212" t="s">
         <v>48</v>
       </c>
-      <c r="AF7" s="215" t="s">
+      <c r="AF7" s="213" t="s">
         <v>49</v>
       </c>
     </row>
@@ -5826,25 +5771,25 @@
       </c>
       <c r="F8" s="154"/>
       <c r="G8" s="154"/>
-      <c r="H8" s="155" t="s">
+      <c r="H8" s="149" t="s">
         <v>52</v>
       </c>
-      <c r="I8" s="156"/>
-      <c r="J8" s="156"/>
+      <c r="I8" s="155"/>
+      <c r="J8" s="155"/>
       <c r="AA8" s="151"/>
       <c r="AB8" s="151" t="s">
         <v>53</v>
       </c>
-      <c r="AC8" s="213" t="s">
+      <c r="AC8" s="211" t="s">
         <v>54</v>
       </c>
       <c r="AD8" s="151">
         <v>5</v>
       </c>
-      <c r="AE8" s="214" t="s">
+      <c r="AE8" s="212" t="s">
         <v>55</v>
       </c>
-      <c r="AF8" s="215" t="s">
+      <c r="AF8" s="213" t="s">
         <v>56</v>
       </c>
     </row>
@@ -5858,10 +5803,10 @@
       <c r="E9" s="146" t="s">
         <v>58</v>
       </c>
-      <c r="F9" s="156" t="s">
+      <c r="F9" s="155" t="s">
         <v>17</v>
       </c>
-      <c r="G9" s="156"/>
+      <c r="G9" s="155"/>
       <c r="H9" s="151" t="s">
         <v>7</v>
       </c>
@@ -5873,14 +5818,14 @@
       <c r="AB9" s="151" t="s">
         <v>59</v>
       </c>
-      <c r="AC9" s="213" t="s">
+      <c r="AC9" s="211" t="s">
         <v>60</v>
       </c>
       <c r="AD9" s="151"/>
-      <c r="AE9" s="214" t="s">
+      <c r="AE9" s="212" t="s">
         <v>61</v>
       </c>
-      <c r="AF9" s="215" t="s">
+      <c r="AF9" s="213" t="s">
         <v>62</v>
       </c>
     </row>
@@ -5892,27 +5837,27 @@
       <c r="E10" s="146" t="s">
         <v>63</v>
       </c>
-      <c r="F10" s="157" t="s">
+      <c r="F10" s="107" t="s">
         <v>64</v>
       </c>
-      <c r="G10" s="158">
+      <c r="G10" s="156">
         <v>1</v>
       </c>
       <c r="H10" s="151" t="s">
         <v>65</v>
       </c>
-      <c r="I10" s="156"/>
-      <c r="J10" s="156"/>
+      <c r="I10" s="155"/>
+      <c r="J10" s="155"/>
       <c r="AA10" s="151"/>
       <c r="AB10" s="151"/>
-      <c r="AC10" s="213" t="s">
+      <c r="AC10" s="211" t="s">
         <v>66</v>
       </c>
       <c r="AD10" s="151"/>
-      <c r="AE10" s="214" t="s">
+      <c r="AE10" s="212" t="s">
         <v>67</v>
       </c>
-      <c r="AF10" s="215" t="s">
+      <c r="AF10" s="213" t="s">
         <v>68</v>
       </c>
     </row>
@@ -5922,25 +5867,25 @@
       <c r="C11" s="145"/>
       <c r="D11" s="145"/>
       <c r="E11" s="151"/>
-      <c r="F11" s="157" t="s">
+      <c r="F11" s="107" t="s">
         <v>30</v>
       </c>
-      <c r="G11" s="158">
+      <c r="G11" s="156">
         <v>3</v>
       </c>
       <c r="H11" s="148"/>
-      <c r="I11" s="156"/>
-      <c r="J11" s="156"/>
+      <c r="I11" s="155"/>
+      <c r="J11" s="155"/>
       <c r="AA11" s="151"/>
       <c r="AB11" s="151"/>
-      <c r="AC11" s="213" t="s">
+      <c r="AC11" s="211" t="s">
         <v>69</v>
       </c>
       <c r="AD11" s="151"/>
-      <c r="AE11" s="214" t="s">
+      <c r="AE11" s="212" t="s">
         <v>70</v>
       </c>
-      <c r="AF11" s="215" t="s">
+      <c r="AF11" s="213" t="s">
         <v>71</v>
       </c>
     </row>
@@ -5952,21 +5897,21 @@
       <c r="C12" s="145"/>
       <c r="D12" s="145"/>
       <c r="E12" s="145"/>
-      <c r="F12" s="157"/>
-      <c r="G12" s="158"/>
-      <c r="H12" s="159"/>
-      <c r="I12" s="156"/>
-      <c r="J12" s="156"/>
+      <c r="F12" s="107"/>
+      <c r="G12" s="156"/>
+      <c r="H12" s="157"/>
+      <c r="I12" s="155"/>
+      <c r="J12" s="155"/>
       <c r="AA12" s="151"/>
       <c r="AB12" s="151"/>
-      <c r="AC12" s="213" t="s">
+      <c r="AC12" s="211" t="s">
         <v>73</v>
       </c>
       <c r="AD12" s="151"/>
-      <c r="AE12" s="214" t="s">
+      <c r="AE12" s="212" t="s">
         <v>74</v>
       </c>
-      <c r="AF12" s="215" t="s">
+      <c r="AF12" s="213" t="s">
         <v>75</v>
       </c>
     </row>
@@ -5975,24 +5920,24 @@
       <c r="B13" s="152"/>
       <c r="C13" s="145"/>
       <c r="D13" s="145"/>
-      <c r="E13" s="160" t="s">
+      <c r="E13" s="158" t="s">
         <v>76</v>
       </c>
-      <c r="F13" s="161"/>
-      <c r="G13" s="161"/>
-      <c r="H13" s="162"/>
-      <c r="I13" s="162"/>
-      <c r="J13" s="162"/>
+      <c r="F13" s="159"/>
+      <c r="G13" s="159"/>
+      <c r="H13" s="160"/>
+      <c r="I13" s="160"/>
+      <c r="J13" s="160"/>
       <c r="AA13" s="151"/>
       <c r="AB13" s="151"/>
-      <c r="AC13" s="213" t="s">
+      <c r="AC13" s="211" t="s">
         <v>77</v>
       </c>
       <c r="AD13" s="151"/>
-      <c r="AE13" s="214" t="s">
+      <c r="AE13" s="212" t="s">
         <v>78</v>
       </c>
-      <c r="AF13" s="215" t="s">
+      <c r="AF13" s="213" t="s">
         <v>79</v>
       </c>
     </row>
@@ -6001,24 +5946,24 @@
       <c r="B14" s="152"/>
       <c r="C14" s="145"/>
       <c r="D14" s="145"/>
-      <c r="E14" s="163" t="s">
+      <c r="E14" s="161" t="s">
         <v>80</v>
       </c>
-      <c r="F14" s="164"/>
-      <c r="G14" s="164"/>
-      <c r="H14" s="164"/>
-      <c r="I14" s="164"/>
-      <c r="J14" s="201"/>
+      <c r="F14" s="162"/>
+      <c r="G14" s="162"/>
+      <c r="H14" s="162"/>
+      <c r="I14" s="162"/>
+      <c r="J14" s="199"/>
       <c r="AA14" s="151"/>
       <c r="AB14" s="151"/>
-      <c r="AC14" s="213" t="s">
+      <c r="AC14" s="211" t="s">
         <v>64</v>
       </c>
       <c r="AD14" s="151"/>
-      <c r="AE14" s="214" t="s">
+      <c r="AE14" s="212" t="s">
         <v>81</v>
       </c>
-      <c r="AF14" s="215" t="s">
+      <c r="AF14" s="213" t="s">
         <v>82</v>
       </c>
     </row>
@@ -6027,19 +5972,19 @@
       <c r="B15" s="152"/>
       <c r="C15" s="145"/>
       <c r="D15" s="145"/>
-      <c r="E15" s="165"/>
-      <c r="F15" s="166"/>
-      <c r="G15" s="166"/>
-      <c r="H15" s="166"/>
-      <c r="I15" s="166"/>
-      <c r="J15" s="202"/>
+      <c r="E15" s="163"/>
+      <c r="F15" s="164"/>
+      <c r="G15" s="164"/>
+      <c r="H15" s="164"/>
+      <c r="I15" s="164"/>
+      <c r="J15" s="200"/>
       <c r="AA15" s="151"/>
       <c r="AB15" s="151"/>
-      <c r="AC15" s="213" t="s">
+      <c r="AC15" s="211" t="s">
         <v>83</v>
       </c>
       <c r="AD15" s="151"/>
-      <c r="AE15" s="214" t="s">
+      <c r="AE15" s="212" t="s">
         <v>84</v>
       </c>
       <c r="AF15" s="151"/>
@@ -6049,19 +5994,19 @@
       <c r="B16" s="152"/>
       <c r="C16" s="145"/>
       <c r="D16" s="145"/>
-      <c r="E16" s="165"/>
-      <c r="F16" s="166"/>
-      <c r="G16" s="166"/>
-      <c r="H16" s="166"/>
-      <c r="I16" s="166"/>
-      <c r="J16" s="202"/>
+      <c r="E16" s="163"/>
+      <c r="F16" s="164"/>
+      <c r="G16" s="164"/>
+      <c r="H16" s="164"/>
+      <c r="I16" s="164"/>
+      <c r="J16" s="200"/>
       <c r="AA16" s="151"/>
       <c r="AB16" s="151"/>
-      <c r="AC16" s="213" t="s">
+      <c r="AC16" s="211" t="s">
         <v>85</v>
       </c>
       <c r="AD16" s="151"/>
-      <c r="AE16" s="214" t="s">
+      <c r="AE16" s="212" t="s">
         <v>86</v>
       </c>
       <c r="AF16" s="151"/>
@@ -6071,19 +6016,19 @@
       <c r="B17" s="152"/>
       <c r="C17" s="145"/>
       <c r="D17" s="145"/>
-      <c r="E17" s="165"/>
-      <c r="F17" s="166"/>
-      <c r="G17" s="166"/>
-      <c r="H17" s="166"/>
-      <c r="I17" s="166"/>
-      <c r="J17" s="202"/>
+      <c r="E17" s="163"/>
+      <c r="F17" s="164"/>
+      <c r="G17" s="164"/>
+      <c r="H17" s="164"/>
+      <c r="I17" s="164"/>
+      <c r="J17" s="200"/>
       <c r="AA17" s="151"/>
       <c r="AB17" s="151"/>
-      <c r="AC17" s="213" t="s">
+      <c r="AC17" s="211" t="s">
         <v>87</v>
       </c>
       <c r="AD17" s="151"/>
-      <c r="AE17" s="214" t="s">
+      <c r="AE17" s="212" t="s">
         <v>88</v>
       </c>
       <c r="AF17" s="151"/>
@@ -6093,19 +6038,19 @@
       <c r="B18" s="152"/>
       <c r="C18" s="145"/>
       <c r="D18" s="145"/>
-      <c r="E18" s="167"/>
-      <c r="F18" s="168"/>
-      <c r="G18" s="168"/>
-      <c r="H18" s="168"/>
-      <c r="I18" s="168"/>
-      <c r="J18" s="203"/>
+      <c r="E18" s="165"/>
+      <c r="F18" s="166"/>
+      <c r="G18" s="166"/>
+      <c r="H18" s="166"/>
+      <c r="I18" s="166"/>
+      <c r="J18" s="201"/>
       <c r="AA18" s="151"/>
       <c r="AB18" s="151"/>
-      <c r="AC18" s="213" t="s">
+      <c r="AC18" s="211" t="s">
         <v>89</v>
       </c>
       <c r="AD18" s="151"/>
-      <c r="AE18" s="214" t="s">
+      <c r="AE18" s="212" t="s">
         <v>90</v>
       </c>
       <c r="AF18" s="151"/>
@@ -6117,21 +6062,21 @@
       <c r="B19" s="148"/>
       <c r="C19" s="148"/>
       <c r="D19" s="148"/>
-      <c r="E19" s="160" t="s">
+      <c r="E19" s="158" t="s">
         <v>92</v>
       </c>
-      <c r="F19" s="161"/>
-      <c r="G19" s="161"/>
-      <c r="H19" s="161"/>
-      <c r="I19" s="161"/>
-      <c r="J19" s="161"/>
+      <c r="F19" s="159"/>
+      <c r="G19" s="159"/>
+      <c r="H19" s="159"/>
+      <c r="I19" s="159"/>
+      <c r="J19" s="159"/>
       <c r="AA19" s="151"/>
       <c r="AB19" s="151"/>
-      <c r="AC19" s="213" t="s">
+      <c r="AC19" s="211" t="s">
         <v>93</v>
       </c>
       <c r="AD19" s="151"/>
-      <c r="AE19" s="214" t="s">
+      <c r="AE19" s="212" t="s">
         <v>94</v>
       </c>
       <c r="AF19" s="151"/>
@@ -6143,19 +6088,19 @@
       <c r="B20" s="152"/>
       <c r="C20" s="145"/>
       <c r="D20" s="145"/>
-      <c r="E20" s="169"/>
-      <c r="F20" s="170"/>
-      <c r="G20" s="170"/>
-      <c r="H20" s="170"/>
-      <c r="I20" s="170"/>
-      <c r="J20" s="204"/>
+      <c r="E20" s="167"/>
+      <c r="F20" s="168"/>
+      <c r="G20" s="168"/>
+      <c r="H20" s="168"/>
+      <c r="I20" s="168"/>
+      <c r="J20" s="202"/>
       <c r="Z20" s="151"/>
       <c r="AA20" s="151"/>
-      <c r="AB20" s="213" t="s">
+      <c r="AB20" s="211" t="s">
         <v>96</v>
       </c>
       <c r="AC20" s="151"/>
-      <c r="AD20" s="214" t="s">
+      <c r="AD20" s="212" t="s">
         <v>97</v>
       </c>
       <c r="AE20" s="151"/>
@@ -6165,19 +6110,19 @@
       <c r="B21" s="152"/>
       <c r="C21" s="145"/>
       <c r="D21" s="145"/>
-      <c r="E21" s="171"/>
-      <c r="F21" s="172"/>
-      <c r="G21" s="172"/>
-      <c r="H21" s="172"/>
-      <c r="I21" s="172"/>
-      <c r="J21" s="205"/>
+      <c r="E21" s="169"/>
+      <c r="F21" s="170"/>
+      <c r="G21" s="170"/>
+      <c r="H21" s="170"/>
+      <c r="I21" s="170"/>
+      <c r="J21" s="203"/>
       <c r="Z21" s="151"/>
       <c r="AA21" s="151"/>
-      <c r="AB21" s="213" t="s">
+      <c r="AB21" s="211" t="s">
         <v>98</v>
       </c>
       <c r="AC21" s="151"/>
-      <c r="AD21" s="214" t="s">
+      <c r="AD21" s="212" t="s">
         <v>99</v>
       </c>
       <c r="AE21" s="151"/>
@@ -6187,19 +6132,19 @@
       <c r="B22" s="152"/>
       <c r="C22" s="145"/>
       <c r="D22" s="145"/>
-      <c r="E22" s="171"/>
-      <c r="F22" s="172"/>
-      <c r="G22" s="172"/>
-      <c r="H22" s="172"/>
-      <c r="I22" s="172"/>
-      <c r="J22" s="205"/>
+      <c r="E22" s="169"/>
+      <c r="F22" s="170"/>
+      <c r="G22" s="170"/>
+      <c r="H22" s="170"/>
+      <c r="I22" s="170"/>
+      <c r="J22" s="203"/>
       <c r="Z22" s="151"/>
       <c r="AA22" s="151"/>
-      <c r="AB22" s="213" t="s">
+      <c r="AB22" s="211" t="s">
         <v>100</v>
       </c>
       <c r="AC22" s="151"/>
-      <c r="AD22" s="214" t="s">
+      <c r="AD22" s="212" t="s">
         <v>101</v>
       </c>
       <c r="AE22" s="151"/>
@@ -6209,19 +6154,19 @@
       <c r="B23" s="152"/>
       <c r="C23" s="145"/>
       <c r="D23" s="145"/>
-      <c r="E23" s="171"/>
-      <c r="F23" s="172"/>
-      <c r="G23" s="172"/>
-      <c r="H23" s="172"/>
-      <c r="I23" s="172"/>
-      <c r="J23" s="205"/>
+      <c r="E23" s="169"/>
+      <c r="F23" s="170"/>
+      <c r="G23" s="170"/>
+      <c r="H23" s="170"/>
+      <c r="I23" s="170"/>
+      <c r="J23" s="203"/>
       <c r="Z23" s="151"/>
       <c r="AA23" s="151"/>
-      <c r="AB23" s="213" t="s">
+      <c r="AB23" s="211" t="s">
         <v>102</v>
       </c>
       <c r="AC23" s="151"/>
-      <c r="AD23" s="214" t="s">
+      <c r="AD23" s="212" t="s">
         <v>103</v>
       </c>
       <c r="AE23" s="151"/>
@@ -6231,19 +6176,19 @@
       <c r="B24" s="152"/>
       <c r="C24" s="145"/>
       <c r="D24" s="145"/>
-      <c r="E24" s="171"/>
-      <c r="F24" s="172"/>
-      <c r="G24" s="172"/>
-      <c r="H24" s="172"/>
-      <c r="I24" s="172"/>
-      <c r="J24" s="205"/>
+      <c r="E24" s="169"/>
+      <c r="F24" s="170"/>
+      <c r="G24" s="170"/>
+      <c r="H24" s="170"/>
+      <c r="I24" s="170"/>
+      <c r="J24" s="203"/>
       <c r="Z24" s="151"/>
       <c r="AA24" s="151"/>
-      <c r="AB24" s="213" t="s">
+      <c r="AB24" s="211" t="s">
         <v>104</v>
       </c>
       <c r="AC24" s="151"/>
-      <c r="AD24" s="214" t="s">
+      <c r="AD24" s="212" t="s">
         <v>105</v>
       </c>
       <c r="AE24" s="151"/>
@@ -6253,90 +6198,90 @@
       <c r="B25" s="152"/>
       <c r="C25" s="145"/>
       <c r="D25" s="145"/>
-      <c r="E25" s="173"/>
-      <c r="F25" s="174"/>
-      <c r="G25" s="174"/>
-      <c r="H25" s="174"/>
-      <c r="I25" s="174"/>
-      <c r="J25" s="206"/>
+      <c r="E25" s="171"/>
+      <c r="F25" s="172"/>
+      <c r="G25" s="172"/>
+      <c r="H25" s="172"/>
+      <c r="I25" s="172"/>
+      <c r="J25" s="204"/>
       <c r="Z25" s="151"/>
       <c r="AA25" s="151"/>
       <c r="AB25" s="151"/>
       <c r="AC25" s="151"/>
-      <c r="AD25" s="214" t="s">
+      <c r="AD25" s="212" t="s">
         <v>106</v>
       </c>
       <c r="AE25" s="151"/>
     </row>
     <row r="26" ht="15.75" spans="1:32">
-      <c r="A26" s="175" t="s">
+      <c r="A26" s="173" t="s">
         <v>107</v>
       </c>
-      <c r="B26" s="176"/>
-      <c r="C26" s="176" t="s">
+      <c r="B26" s="174"/>
+      <c r="C26" s="174" t="s">
         <v>108</v>
       </c>
-      <c r="D26" s="176"/>
-      <c r="F26" s="176"/>
-      <c r="G26" s="176" t="s">
+      <c r="D26" s="174"/>
+      <c r="F26" s="174"/>
+      <c r="G26" s="174" t="s">
         <v>109</v>
       </c>
-      <c r="H26" s="176"/>
-      <c r="I26" s="176"/>
-      <c r="J26" s="207"/>
+      <c r="H26" s="174"/>
+      <c r="I26" s="174"/>
+      <c r="J26" s="205"/>
       <c r="AA26" s="151"/>
       <c r="AB26" s="151"/>
       <c r="AC26" s="151"/>
       <c r="AD26" s="151"/>
-      <c r="AE26" s="214" t="s">
+      <c r="AE26" s="212" t="s">
         <v>110</v>
       </c>
       <c r="AF26" s="151"/>
     </row>
     <row r="27" ht="15" spans="1:32">
-      <c r="A27" s="177" t="s">
+      <c r="A27" s="175" t="s">
         <v>111</v>
       </c>
-      <c r="B27" s="177"/>
-      <c r="C27" s="177" t="s">
+      <c r="B27" s="175"/>
+      <c r="C27" s="175" t="s">
         <v>112</v>
       </c>
-      <c r="D27" s="177"/>
-      <c r="E27" s="177"/>
-      <c r="F27" s="177"/>
-      <c r="G27" s="177" t="s">
+      <c r="D27" s="175"/>
+      <c r="E27" s="175"/>
+      <c r="F27" s="175"/>
+      <c r="G27" s="175" t="s">
         <v>112</v>
       </c>
-      <c r="H27" s="177"/>
-      <c r="I27" s="177"/>
-      <c r="J27" s="177"/>
+      <c r="H27" s="175"/>
+      <c r="I27" s="175"/>
+      <c r="J27" s="175"/>
       <c r="AA27" s="151"/>
       <c r="AB27" s="151"/>
       <c r="AC27" s="151"/>
       <c r="AD27" s="151"/>
-      <c r="AE27" s="214" t="s">
+      <c r="AE27" s="212" t="s">
         <v>113</v>
       </c>
       <c r="AF27" s="151"/>
     </row>
     <row r="28" ht="15" spans="1:32">
-      <c r="A28" s="178" t="s">
+      <c r="A28" s="176" t="s">
         <v>114</v>
       </c>
-      <c r="B28" s="178"/>
-      <c r="C28" s="178"/>
-      <c r="D28" s="178"/>
-      <c r="E28" s="178"/>
-      <c r="F28" s="178"/>
-      <c r="G28" s="178"/>
-      <c r="H28" s="178"/>
-      <c r="I28" s="178"/>
-      <c r="J28" s="178"/>
+      <c r="B28" s="176"/>
+      <c r="C28" s="176"/>
+      <c r="D28" s="176"/>
+      <c r="E28" s="176"/>
+      <c r="F28" s="176"/>
+      <c r="G28" s="176"/>
+      <c r="H28" s="176"/>
+      <c r="I28" s="176"/>
+      <c r="J28" s="176"/>
       <c r="AA28" s="151"/>
       <c r="AB28" s="151"/>
       <c r="AC28" s="151"/>
       <c r="AD28" s="151"/>
-      <c r="AE28" s="214"/>
+      <c r="AE28" s="212"/>
       <c r="AF28" s="151"/>
     </row>
     <row r="29" ht="15.95" customHeight="1" spans="1:30">
@@ -6346,30 +6291,30 @@
       <c r="B29" s="108" t="s">
         <v>116</v>
       </c>
-      <c r="C29" s="179" t="s">
+      <c r="C29" s="177" t="s">
         <v>117</v>
       </c>
-      <c r="D29" s="179"/>
+      <c r="D29" s="177"/>
       <c r="E29" s="109" t="s">
         <v>118</v>
       </c>
       <c r="F29" s="109"/>
-      <c r="G29" s="180" t="s">
+      <c r="G29" s="178" t="s">
         <v>119</v>
       </c>
-      <c r="H29" s="181"/>
+      <c r="H29" s="179"/>
       <c r="I29" s="128" t="s">
         <v>76</v>
       </c>
       <c r="J29" s="128"/>
-      <c r="Y29" s="216"/>
-      <c r="Z29" s="216"/>
-      <c r="AA29" s="216"/>
-      <c r="AB29" s="216"/>
-      <c r="AC29" s="214" t="s">
+      <c r="Y29" s="214"/>
+      <c r="Z29" s="214"/>
+      <c r="AA29" s="214"/>
+      <c r="AB29" s="214"/>
+      <c r="AC29" s="212" t="s">
         <v>120</v>
       </c>
-      <c r="AD29" s="216"/>
+      <c r="AD29" s="214"/>
     </row>
     <row r="30" ht="15.6" customHeight="1" spans="1:30">
       <c r="A30" s="110">
@@ -6402,7 +6347,7 @@
       <c r="Z30" s="151"/>
       <c r="AA30" s="151"/>
       <c r="AB30" s="151"/>
-      <c r="AC30" s="214" t="s">
+      <c r="AC30" s="212" t="s">
         <v>124</v>
       </c>
       <c r="AD30" s="151"/>
@@ -6436,63 +6381,63 @@
       <c r="J31" s="56"/>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="182" t="s">
+      <c r="A32" s="180" t="s">
         <v>126</v>
       </c>
-      <c r="B32" s="183"/>
-      <c r="C32" s="184"/>
-      <c r="D32" s="184"/>
-      <c r="E32" s="184"/>
-      <c r="F32" s="184"/>
-      <c r="G32" s="184"/>
-      <c r="H32" s="184"/>
-      <c r="I32" s="184"/>
-      <c r="J32" s="208"/>
+      <c r="B32" s="181"/>
+      <c r="C32" s="182"/>
+      <c r="D32" s="182"/>
+      <c r="E32" s="182"/>
+      <c r="F32" s="182"/>
+      <c r="G32" s="182"/>
+      <c r="H32" s="182"/>
+      <c r="I32" s="182"/>
+      <c r="J32" s="206"/>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="94" t="s">
         <v>127</v>
       </c>
       <c r="B33" s="139"/>
-      <c r="J33" s="34"/>
+      <c r="J33" s="35"/>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="139" t="s">
         <v>128</v>
       </c>
-      <c r="B34" s="185" t="s">
+      <c r="B34" s="183" t="s">
         <v>129</v>
       </c>
-      <c r="J34" s="34"/>
+      <c r="J34" s="35"/>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35" s="186" t="s">
+      <c r="A35" s="184" t="s">
         <v>130</v>
       </c>
-      <c r="B35" s="184"/>
-      <c r="C35" s="184"/>
-      <c r="D35" s="184"/>
-      <c r="E35" s="184"/>
-      <c r="F35" s="184"/>
-      <c r="G35" s="184"/>
-      <c r="H35" s="184"/>
-      <c r="I35" s="184"/>
-      <c r="J35" s="208"/>
+      <c r="B35" s="182"/>
+      <c r="C35" s="182"/>
+      <c r="D35" s="182"/>
+      <c r="E35" s="182"/>
+      <c r="F35" s="182"/>
+      <c r="G35" s="182"/>
+      <c r="H35" s="182"/>
+      <c r="I35" s="182"/>
+      <c r="J35" s="206"/>
     </row>
     <row r="36" s="139" customFormat="1" spans="1:14">
-      <c r="A36" s="187" t="s">
+      <c r="A36" s="185" t="s">
         <v>131</v>
       </c>
-      <c r="J36" s="209"/>
+      <c r="J36" s="207"/>
       <c r="N36" s="139" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="37" spans="1:14">
-      <c r="A37" s="188" t="s">
+      <c r="A37" s="186" t="s">
         <v>133</v>
       </c>
-      <c r="B37" s="189" t="s">
+      <c r="B37" s="187" t="s">
         <v>134</v>
       </c>
       <c r="C37" t="s">
@@ -6503,7 +6448,7 @@
         <v>136</v>
       </c>
       <c r="F37" s="3"/>
-      <c r="G37" s="33"/>
+      <c r="G37" s="34"/>
       <c r="H37" s="130"/>
       <c r="I37" s="130"/>
       <c r="J37" s="130"/>
@@ -6512,77 +6457,77 @@
       </c>
     </row>
     <row r="38" spans="1:10">
-      <c r="A38" s="190" t="s">
+      <c r="A38" s="188" t="s">
         <v>138</v>
       </c>
-      <c r="B38" s="191"/>
-      <c r="C38" s="192"/>
-      <c r="D38" s="193"/>
-      <c r="F38" s="23"/>
-      <c r="H38" s="194"/>
-      <c r="I38" s="194"/>
-      <c r="J38" s="210"/>
+      <c r="B38" s="189"/>
+      <c r="C38" s="190"/>
+      <c r="D38" s="191"/>
+      <c r="F38" s="24"/>
+      <c r="H38" s="192"/>
+      <c r="I38" s="192"/>
+      <c r="J38" s="208"/>
     </row>
     <row r="39" spans="1:10">
       <c r="A39" t="s">
         <v>139</v>
       </c>
-      <c r="B39" s="22" t="s">
+      <c r="B39" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="C39" s="23"/>
-      <c r="D39" s="195"/>
-      <c r="E39" s="195"/>
-      <c r="F39" s="23"/>
-      <c r="G39" s="23"/>
-      <c r="H39" s="23"/>
-      <c r="I39" s="23"/>
-      <c r="J39" s="24"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="193"/>
+      <c r="E39" s="193"/>
+      <c r="F39" s="24"/>
+      <c r="G39" s="24"/>
+      <c r="H39" s="24"/>
+      <c r="I39" s="24"/>
+      <c r="J39" s="25"/>
     </row>
     <row r="40" spans="1:10">
-      <c r="A40" s="186" t="s">
+      <c r="A40" s="184" t="s">
         <v>141</v>
       </c>
-      <c r="B40" s="184"/>
-      <c r="C40" s="184"/>
-      <c r="D40" s="184"/>
-      <c r="E40" s="184"/>
-      <c r="F40" s="184"/>
-      <c r="G40" s="184"/>
-      <c r="H40" s="184"/>
-      <c r="I40" s="184"/>
-      <c r="J40" s="208"/>
+      <c r="B40" s="182"/>
+      <c r="C40" s="182"/>
+      <c r="D40" s="182"/>
+      <c r="E40" s="182"/>
+      <c r="F40" s="182"/>
+      <c r="G40" s="182"/>
+      <c r="H40" s="182"/>
+      <c r="I40" s="182"/>
+      <c r="J40" s="206"/>
     </row>
     <row r="41" spans="1:10">
-      <c r="A41" s="33" t="s">
+      <c r="A41" s="34" t="s">
         <v>142</v>
       </c>
-      <c r="J41" s="34"/>
+      <c r="J41" s="35"/>
     </row>
     <row r="42" spans="1:10">
-      <c r="A42" s="186" t="s">
+      <c r="A42" s="184" t="s">
         <v>143</v>
       </c>
-      <c r="B42" s="184"/>
-      <c r="C42" s="184" t="s">
+      <c r="B42" s="182"/>
+      <c r="C42" s="182" t="s">
         <v>144</v>
       </c>
-      <c r="D42" s="184"/>
-      <c r="E42" s="184"/>
-      <c r="F42" s="184"/>
-      <c r="G42" s="184"/>
-      <c r="H42" s="184"/>
-      <c r="I42" s="184"/>
-      <c r="J42" s="208"/>
+      <c r="D42" s="182"/>
+      <c r="E42" s="182"/>
+      <c r="F42" s="182"/>
+      <c r="G42" s="182"/>
+      <c r="H42" s="182"/>
+      <c r="I42" s="182"/>
+      <c r="J42" s="206"/>
     </row>
     <row r="43" spans="1:10">
-      <c r="A43" s="196" t="s">
+      <c r="A43" s="194" t="s">
         <v>145</v>
       </c>
-      <c r="J43" s="34"/>
+      <c r="J43" s="35"/>
     </row>
     <row r="44" spans="1:10">
-      <c r="A44" s="33" t="s">
+      <c r="A44" s="34" t="s">
         <v>146</v>
       </c>
       <c r="B44" t="s">
@@ -6600,41 +6545,41 @@
       <c r="F44" t="s">
         <v>151</v>
       </c>
-      <c r="J44" s="34"/>
+      <c r="J44" s="35"/>
     </row>
     <row r="45" spans="1:10">
-      <c r="A45" s="33" t="s">
+      <c r="A45" s="34" t="s">
         <v>152</v>
       </c>
       <c r="B45" t="s">
         <v>153</v>
       </c>
-      <c r="J45" s="34"/>
+      <c r="J45" s="35"/>
     </row>
     <row r="46" spans="1:10">
-      <c r="A46" s="33" t="s">
+      <c r="A46" s="34" t="s">
         <v>154</v>
       </c>
       <c r="B46" t="s">
         <v>153</v>
       </c>
-      <c r="J46" s="34"/>
+      <c r="J46" s="35"/>
     </row>
     <row r="47" spans="1:10">
-      <c r="A47" s="25" t="s">
+      <c r="A47" s="26" t="s">
         <v>155</v>
       </c>
-      <c r="B47" s="26" t="s">
+      <c r="B47" s="27" t="s">
         <v>153</v>
       </c>
-      <c r="C47" s="26"/>
-      <c r="D47" s="26"/>
-      <c r="E47" s="26"/>
-      <c r="F47" s="26"/>
-      <c r="G47" s="26"/>
-      <c r="H47" s="26"/>
-      <c r="I47" s="26"/>
-      <c r="J47" s="35"/>
+      <c r="C47" s="27"/>
+      <c r="D47" s="27"/>
+      <c r="E47" s="27"/>
+      <c r="F47" s="27"/>
+      <c r="G47" s="27"/>
+      <c r="H47" s="27"/>
+      <c r="I47" s="27"/>
+      <c r="J47" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="46">
@@ -6747,48 +6692,48 @@
   <sheetData>
     <row r="1" spans="2:2">
       <c r="B1" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B2" t="s">
         <v>43</v>
       </c>
       <c r="C2" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="D2" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="E2" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="F2" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="G2" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H2" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="I2" t="s">
         <v>6</v>
       </c>
       <c r="J2" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="K2" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="L2" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="M2" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="3" spans="2:13">
@@ -6799,19 +6744,19 @@
         <v>408</v>
       </c>
       <c r="D3" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="E3" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="F3" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="G3" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H3" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -6820,13 +6765,13 @@
         <v>220</v>
       </c>
       <c r="K3" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="L3" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="M3" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="4" spans="2:13">
@@ -6837,19 +6782,19 @@
         <v>408</v>
       </c>
       <c r="D4" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="E4" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F4" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="G4" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H4" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -6858,13 +6803,13 @@
         <v>330</v>
       </c>
       <c r="K4" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="L4" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="M4" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="5" spans="2:13">
@@ -6875,19 +6820,19 @@
         <v>408</v>
       </c>
       <c r="D5" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="E5" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="F5" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="G5" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H5" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -6896,13 +6841,13 @@
         <v>350</v>
       </c>
       <c r="K5" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="L5" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="M5" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="6" spans="2:13">
@@ -6913,16 +6858,16 @@
         <v>408</v>
       </c>
       <c r="D6" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="E6" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="F6" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="G6" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="H6" t="s">
         <v>408</v>
@@ -6934,13 +6879,13 @@
         <v>450</v>
       </c>
       <c r="K6" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="L6" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="M6" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="7" spans="2:13">
@@ -6951,16 +6896,16 @@
         <v>408</v>
       </c>
       <c r="D7" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="E7" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="F7" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="G7" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="H7" t="s">
         <v>408</v>
@@ -6972,13 +6917,13 @@
         <v>50</v>
       </c>
       <c r="K7" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="L7" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="M7" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="8" spans="2:13">
@@ -6989,16 +6934,16 @@
         <v>408</v>
       </c>
       <c r="D8" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="E8" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="F8" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="G8" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H8" t="s">
         <v>408</v>
@@ -7010,13 +6955,13 @@
         <v>30</v>
       </c>
       <c r="K8" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="L8" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="M8" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="9" spans="2:13">
@@ -7027,16 +6972,16 @@
         <v>408</v>
       </c>
       <c r="D9" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="E9" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="F9" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="G9" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="H9" t="s">
         <v>408</v>
@@ -7048,13 +6993,13 @@
         <v>300</v>
       </c>
       <c r="K9" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="L9" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="M9" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="10" spans="2:13">
@@ -7065,19 +7010,19 @@
         <v>408</v>
       </c>
       <c r="D10" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="E10" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="F10" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="G10" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H10" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -7086,13 +7031,13 @@
         <v>620</v>
       </c>
       <c r="K10" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="L10" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="M10" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="11" spans="2:13">
@@ -7103,19 +7048,19 @@
         <v>408</v>
       </c>
       <c r="D11" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="E11" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F11" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="G11" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H11" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -7124,13 +7069,13 @@
         <v>930</v>
       </c>
       <c r="K11" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="L11" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="M11" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="12" spans="2:13">
@@ -7141,19 +7086,19 @@
         <v>408</v>
       </c>
       <c r="D12" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="E12" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="F12" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="G12" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H12" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -7162,13 +7107,13 @@
         <v>1240</v>
       </c>
       <c r="K12" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="L12" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="M12" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="13" spans="2:13">
@@ -7179,19 +7124,19 @@
         <v>408</v>
       </c>
       <c r="D13" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="E13" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="F13" t="s">
         <v>368</v>
       </c>
       <c r="G13" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H13" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -7200,13 +7145,13 @@
         <v>992</v>
       </c>
       <c r="K13" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="L13" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="M13" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="14" spans="2:13">
@@ -7217,19 +7162,19 @@
         <v>408</v>
       </c>
       <c r="D14" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="E14" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F14" t="s">
         <v>368</v>
       </c>
       <c r="G14" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H14" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -7238,13 +7183,13 @@
         <v>1488</v>
       </c>
       <c r="K14" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="L14" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="M14" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="15" spans="2:13">
@@ -7255,19 +7200,19 @@
         <v>408</v>
       </c>
       <c r="D15" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="E15" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="F15" t="s">
         <v>368</v>
       </c>
       <c r="G15" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H15" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -7276,13 +7221,13 @@
         <v>1983</v>
       </c>
       <c r="K15" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="L15" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="M15" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="16" spans="2:13">
@@ -7293,19 +7238,19 @@
         <v>408</v>
       </c>
       <c r="D16" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="E16" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="F16" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="G16" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H16" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -7314,13 +7259,13 @@
         <v>682</v>
       </c>
       <c r="K16" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="L16" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="M16" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="17" spans="2:13">
@@ -7331,19 +7276,19 @@
         <v>408</v>
       </c>
       <c r="D17" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="E17" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F17" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="G17" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H17" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="I17">
         <v>1</v>
@@ -7352,36 +7297,36 @@
         <v>1023</v>
       </c>
       <c r="K17" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="L17" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="M17" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="18" spans="2:13">
       <c r="B18" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C18" t="s">
         <v>408</v>
       </c>
       <c r="D18" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="E18" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="F18" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="G18" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H18" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="I18">
         <v>1</v>
@@ -7390,36 +7335,36 @@
         <v>430</v>
       </c>
       <c r="K18" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="L18" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="M18" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="19" spans="2:13">
       <c r="B19" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C19" t="s">
         <v>408</v>
       </c>
       <c r="D19" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="E19" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F19" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="G19" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H19" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="I19">
         <v>1</v>
@@ -7428,36 +7373,36 @@
         <v>590</v>
       </c>
       <c r="K19" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="L19" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="M19" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="20" spans="2:13">
       <c r="B20" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C20" t="s">
         <v>408</v>
       </c>
       <c r="D20" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="E20" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="F20" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="G20" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H20" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="I20">
         <v>1</v>
@@ -7466,33 +7411,33 @@
         <v>650</v>
       </c>
       <c r="K20" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="L20" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="M20" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="21" spans="2:13">
       <c r="B21" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C21" t="s">
         <v>408</v>
       </c>
       <c r="D21" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="E21" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="F21" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="G21" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="H21" t="s">
         <v>408</v>
@@ -7504,36 +7449,36 @@
         <v>400</v>
       </c>
       <c r="K21" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="L21" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="M21" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="22" spans="2:13">
       <c r="B22" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C22" t="s">
         <v>408</v>
       </c>
       <c r="D22" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="E22" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="F22" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="G22" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H22" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="I22">
         <v>1</v>
@@ -7542,33 +7487,33 @@
         <v>30</v>
       </c>
       <c r="K22" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="L22" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="M22" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="23" spans="2:13">
       <c r="B23" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C23" t="s">
         <v>408</v>
       </c>
       <c r="D23" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="E23" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="F23" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="G23" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H23" t="s">
         <v>408</v>
@@ -7580,36 +7525,36 @@
         <v>30</v>
       </c>
       <c r="K23" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="L23" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="M23" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="24" spans="2:13">
       <c r="B24" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C24" t="s">
         <v>408</v>
       </c>
       <c r="D24" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="E24" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="F24" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="G24" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H24" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="I24">
         <v>1</v>
@@ -7618,36 +7563,36 @@
         <v>611</v>
       </c>
       <c r="K24" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="L24" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="M24" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="25" spans="2:13">
       <c r="B25" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C25" t="s">
         <v>408</v>
       </c>
       <c r="D25" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="E25" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F25" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="G25" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H25" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="I25">
         <v>1</v>
@@ -7656,36 +7601,36 @@
         <v>984</v>
       </c>
       <c r="K25" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="L25" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="M25" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="26" spans="2:13">
       <c r="B26" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C26" t="s">
         <v>408</v>
       </c>
       <c r="D26" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="E26" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="F26" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="G26" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H26" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="I26">
         <v>1</v>
@@ -7694,36 +7639,36 @@
         <v>1283</v>
       </c>
       <c r="K26" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="L26" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="M26" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="27" spans="2:13">
       <c r="B27" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C27" t="s">
         <v>408</v>
       </c>
       <c r="D27" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="E27" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="F27" t="s">
         <v>368</v>
       </c>
       <c r="G27" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H27" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="I27">
         <v>1</v>
@@ -7732,36 +7677,36 @@
         <v>624</v>
       </c>
       <c r="K27" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="L27" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="M27" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="28" spans="2:13">
       <c r="B28" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C28" t="s">
         <v>408</v>
       </c>
       <c r="D28" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="E28" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F28" t="s">
         <v>368</v>
       </c>
       <c r="G28" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H28" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="I28">
         <v>1</v>
@@ -7770,36 +7715,36 @@
         <v>976</v>
       </c>
       <c r="K28" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="L28" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="M28" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="29" spans="2:13">
       <c r="B29" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C29" t="s">
         <v>408</v>
       </c>
       <c r="D29" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="E29" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="F29" t="s">
         <v>368</v>
       </c>
       <c r="G29" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H29" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="I29">
         <v>1</v>
@@ -7808,36 +7753,36 @@
         <v>1285</v>
       </c>
       <c r="K29" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="L29" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="M29" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="30" spans="2:13">
       <c r="B30" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C30" t="s">
         <v>408</v>
       </c>
       <c r="D30" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="E30" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="F30" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="G30" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H30" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="I30">
         <v>1</v>
@@ -7846,36 +7791,36 @@
         <v>870</v>
       </c>
       <c r="K30" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="L30" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="M30" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="31" spans="2:13">
       <c r="B31" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C31" t="s">
         <v>408</v>
       </c>
       <c r="D31" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="E31" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F31" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="G31" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H31" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="I31">
         <v>1</v>
@@ -7884,36 +7829,36 @@
         <v>1344</v>
       </c>
       <c r="K31" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="L31" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="M31" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="32" spans="2:13">
       <c r="B32" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C32" t="s">
         <v>408</v>
       </c>
       <c r="D32" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="E32" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="F32" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="G32" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H32" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="I32">
         <v>1</v>
@@ -7922,36 +7867,36 @@
         <v>220</v>
       </c>
       <c r="K32" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="L32" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="M32" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="33" spans="2:13">
       <c r="B33" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C33" t="s">
         <v>408</v>
       </c>
       <c r="D33" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="E33" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F33" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="G33" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H33" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="I33">
         <v>1</v>
@@ -7960,33 +7905,33 @@
         <v>330</v>
       </c>
       <c r="K33" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="L33" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="M33" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="34" spans="2:13">
       <c r="B34" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C34" t="s">
         <v>408</v>
       </c>
       <c r="D34" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="E34" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="F34" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="G34" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="H34" t="s">
         <v>408</v>
@@ -7998,36 +7943,36 @@
         <v>450</v>
       </c>
       <c r="K34" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="L34" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="M34" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="35" spans="2:13">
       <c r="B35" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C35" t="s">
         <v>408</v>
       </c>
       <c r="D35" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="E35" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="F35" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="G35" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H35" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="I35">
         <v>1</v>
@@ -8036,33 +7981,33 @@
         <v>30</v>
       </c>
       <c r="K35" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="L35" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="M35" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="36" spans="2:13">
       <c r="B36" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C36" t="s">
         <v>408</v>
       </c>
       <c r="D36" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="E36" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="F36" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="G36" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="H36" t="s">
         <v>408</v>
@@ -8074,33 +8019,33 @@
         <v>20</v>
       </c>
       <c r="K36" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="L36" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="M36" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="37" spans="2:13">
       <c r="B37" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C37" t="s">
         <v>408</v>
       </c>
       <c r="D37" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="E37" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="F37" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="G37" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H37" t="s">
         <v>408</v>
@@ -8112,33 +8057,33 @@
         <v>30</v>
       </c>
       <c r="K37" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="L37" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="M37" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="38" spans="2:13">
       <c r="B38" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C38" t="s">
         <v>408</v>
       </c>
       <c r="D38" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="E38" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="F38" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="G38" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="H38" t="s">
         <v>408</v>
@@ -8150,36 +8095,36 @@
         <v>300</v>
       </c>
       <c r="K38" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="L38" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="M38" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="39" spans="2:13">
       <c r="B39" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C39" t="s">
         <v>408</v>
       </c>
       <c r="D39" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="E39" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="F39" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="G39" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H39" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="I39">
         <v>1</v>
@@ -8188,36 +8133,36 @@
         <v>696</v>
       </c>
       <c r="K39" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="L39" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="M39" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="40" spans="2:13">
       <c r="B40" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C40" t="s">
         <v>408</v>
       </c>
       <c r="D40" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="E40" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F40" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="G40" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H40" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="I40">
         <v>1</v>
@@ -8226,36 +8171,36 @@
         <v>1067</v>
       </c>
       <c r="K40" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="L40" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="M40" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="41" spans="2:13">
       <c r="B41" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C41" t="s">
         <v>408</v>
       </c>
       <c r="D41" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="E41" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="F41" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="G41" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H41" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="I41">
         <v>1</v>
@@ -8264,36 +8209,36 @@
         <v>1337</v>
       </c>
       <c r="K41" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="L41" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="M41" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="42" spans="2:13">
       <c r="B42" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C42" t="s">
         <v>408</v>
       </c>
       <c r="D42" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="E42" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="F42" t="s">
         <v>368</v>
       </c>
       <c r="G42" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H42" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="I42">
         <v>1</v>
@@ -8302,36 +8247,36 @@
         <v>807</v>
       </c>
       <c r="K42" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="L42" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="M42" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="43" spans="2:13">
       <c r="B43" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C43" t="s">
         <v>408</v>
       </c>
       <c r="D43" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="E43" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F43" t="s">
         <v>368</v>
       </c>
       <c r="G43" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H43" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="I43">
         <v>1</v>
@@ -8340,36 +8285,36 @@
         <v>1235</v>
       </c>
       <c r="K43" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="L43" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="M43" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="44" spans="2:13">
       <c r="B44" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C44" t="s">
         <v>408</v>
       </c>
       <c r="D44" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="E44" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="F44" t="s">
         <v>368</v>
       </c>
       <c r="G44" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H44" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="I44">
         <v>1</v>
@@ -8378,36 +8323,36 @@
         <v>1407</v>
       </c>
       <c r="K44" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="L44" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="M44" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="45" ht="28.5" spans="2:13">
       <c r="B45" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C45" t="s">
         <v>408</v>
       </c>
       <c r="D45" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="E45" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="F45" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="G45" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H45" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="I45">
         <v>1</v>
@@ -8416,36 +8361,36 @@
         <v>847</v>
       </c>
       <c r="K45" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="L45" s="5" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="M45" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="46" ht="28.5" spans="2:13">
       <c r="B46" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C46" t="s">
         <v>408</v>
       </c>
       <c r="D46" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="E46" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F46" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="G46" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H46" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="I46">
         <v>1</v>
@@ -8454,36 +8399,36 @@
         <v>1271</v>
       </c>
       <c r="K46" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="L46" s="5" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="M46" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="47" spans="2:13">
       <c r="B47" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C47" t="s">
         <v>408</v>
       </c>
       <c r="D47" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="E47" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="F47" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="G47" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H47" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="I47">
         <v>1</v>
@@ -8492,13 +8437,13 @@
         <v>2100</v>
       </c>
       <c r="K47" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="L47" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="M47" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="48" spans="1:13">
@@ -8506,25 +8451,25 @@
         <v>1</v>
       </c>
       <c r="B48" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C48" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="D48" t="s">
+        <v>528</v>
+      </c>
+      <c r="E48" t="s">
+        <v>496</v>
+      </c>
+      <c r="F48" t="s">
+        <v>496</v>
+      </c>
+      <c r="G48" t="s">
+        <v>529</v>
+      </c>
+      <c r="H48" t="s">
         <v>527</v>
-      </c>
-      <c r="E48" t="s">
-        <v>495</v>
-      </c>
-      <c r="F48" t="s">
-        <v>495</v>
-      </c>
-      <c r="G48" t="s">
-        <v>528</v>
-      </c>
-      <c r="H48" t="s">
-        <v>526</v>
       </c>
       <c r="I48">
         <v>1</v>
@@ -8533,13 +8478,13 @@
         <v>100</v>
       </c>
       <c r="K48" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="L48" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="M48" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="49" spans="1:13">
@@ -8547,25 +8492,25 @@
         <v>1</v>
       </c>
       <c r="B49" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C49" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="D49" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="E49" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="F49" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="G49" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="H49" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="I49">
         <v>1</v>
@@ -8574,13 +8519,13 @@
         <v>100</v>
       </c>
       <c r="K49" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="L49" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="M49" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="50" spans="1:13">
@@ -8588,25 +8533,25 @@
         <v>1</v>
       </c>
       <c r="B50" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C50" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="D50" t="s">
+        <v>528</v>
+      </c>
+      <c r="E50" t="s">
+        <v>496</v>
+      </c>
+      <c r="F50" t="s">
+        <v>496</v>
+      </c>
+      <c r="G50" t="s">
+        <v>535</v>
+      </c>
+      <c r="H50" t="s">
         <v>527</v>
-      </c>
-      <c r="E50" t="s">
-        <v>495</v>
-      </c>
-      <c r="F50" t="s">
-        <v>495</v>
-      </c>
-      <c r="G50" t="s">
-        <v>534</v>
-      </c>
-      <c r="H50" t="s">
-        <v>526</v>
       </c>
       <c r="I50">
         <v>1</v>
@@ -8615,13 +8560,13 @@
         <v>100</v>
       </c>
       <c r="K50" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="L50" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="M50" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="51" spans="1:13">
@@ -8629,25 +8574,25 @@
         <v>1</v>
       </c>
       <c r="B51" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C51" t="s">
         <v>408</v>
       </c>
       <c r="D51" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="E51" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="F51" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="G51" t="s">
         <v>195</v>
       </c>
       <c r="H51" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="I51">
         <v>1</v>
@@ -8656,13 +8601,13 @@
         <v>50</v>
       </c>
       <c r="K51" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="L51" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="M51" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="52" spans="1:13">
@@ -8670,25 +8615,25 @@
         <v>1</v>
       </c>
       <c r="B52" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C52" t="s">
         <v>408</v>
       </c>
       <c r="D52" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="E52" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="F52" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="G52" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H52" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="I52">
         <v>1</v>
@@ -8697,13 +8642,13 @@
         <v>80</v>
       </c>
       <c r="K52" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="L52" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="M52" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="53" spans="1:13">
@@ -8711,25 +8656,25 @@
         <v>1</v>
       </c>
       <c r="B53" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C53" t="s">
         <v>408</v>
       </c>
       <c r="D53" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="E53" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="F53" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="G53" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="H53" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="I53">
         <v>1</v>
@@ -8738,13 +8683,13 @@
         <v>700</v>
       </c>
       <c r="K53" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="L53" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="M53" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="54" spans="1:13">
@@ -8752,25 +8697,25 @@
         <v>1</v>
       </c>
       <c r="B54" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C54" t="s">
         <v>408</v>
       </c>
       <c r="D54" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="E54" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="F54" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="G54" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="H54" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="I54">
         <v>1</v>
@@ -8779,13 +8724,13 @@
         <v>1000</v>
       </c>
       <c r="K54" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="L54" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="M54" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="55" spans="1:13">
@@ -8793,25 +8738,25 @@
         <v>1</v>
       </c>
       <c r="B55" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C55" t="s">
         <v>408</v>
       </c>
       <c r="D55" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="E55" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="F55" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="G55" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="H55" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="I55">
         <v>1</v>
@@ -8820,13 +8765,13 @@
         <v>1200</v>
       </c>
       <c r="K55" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="L55" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="M55" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="56" spans="1:13">
@@ -8834,25 +8779,25 @@
         <v>1</v>
       </c>
       <c r="B56" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C56" t="s">
         <v>408</v>
       </c>
       <c r="D56" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="E56" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="F56" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="G56" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="H56" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="I56">
         <v>1</v>
@@ -8861,13 +8806,13 @@
         <v>500</v>
       </c>
       <c r="K56" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="L56" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="M56" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="57" spans="1:13">
@@ -8875,25 +8820,25 @@
         <v>1</v>
       </c>
       <c r="B57" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C57" t="s">
         <v>408</v>
       </c>
       <c r="D57" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="E57" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="F57" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="G57" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="H57" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="I57">
         <v>1</v>
@@ -8902,13 +8847,13 @@
         <v>700</v>
       </c>
       <c r="K57" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="L57" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="M57" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="58" spans="1:13">
@@ -8916,25 +8861,25 @@
         <v>1</v>
       </c>
       <c r="B58" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C58" t="s">
         <v>408</v>
       </c>
       <c r="D58" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="E58" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="F58" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="G58" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="H58" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="I58">
         <v>1</v>
@@ -8943,13 +8888,13 @@
         <v>800</v>
       </c>
       <c r="K58" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="L58" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="M58" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="59" spans="1:13">
@@ -8957,25 +8902,25 @@
         <v>1</v>
       </c>
       <c r="B59" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C59" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="D59" t="s">
+        <v>528</v>
+      </c>
+      <c r="E59" t="s">
+        <v>496</v>
+      </c>
+      <c r="F59" t="s">
+        <v>496</v>
+      </c>
+      <c r="G59" t="s">
+        <v>508</v>
+      </c>
+      <c r="H59" t="s">
         <v>527</v>
-      </c>
-      <c r="E59" t="s">
-        <v>495</v>
-      </c>
-      <c r="F59" t="s">
-        <v>495</v>
-      </c>
-      <c r="G59" t="s">
-        <v>507</v>
-      </c>
-      <c r="H59" t="s">
-        <v>526</v>
       </c>
       <c r="I59">
         <v>1</v>
@@ -8984,13 +8929,13 @@
         <v>220</v>
       </c>
       <c r="K59" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="L59" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="M59" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="60" spans="1:13">
@@ -8998,25 +8943,25 @@
         <v>1</v>
       </c>
       <c r="B60" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C60" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="D60" t="s">
+        <v>528</v>
+      </c>
+      <c r="E60" t="s">
+        <v>496</v>
+      </c>
+      <c r="F60" t="s">
+        <v>496</v>
+      </c>
+      <c r="G60" t="s">
+        <v>511</v>
+      </c>
+      <c r="H60" t="s">
         <v>527</v>
-      </c>
-      <c r="E60" t="s">
-        <v>495</v>
-      </c>
-      <c r="F60" t="s">
-        <v>495</v>
-      </c>
-      <c r="G60" t="s">
-        <v>510</v>
-      </c>
-      <c r="H60" t="s">
-        <v>526</v>
       </c>
       <c r="I60">
         <v>1</v>
@@ -9025,13 +8970,13 @@
         <v>300</v>
       </c>
       <c r="K60" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="L60" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="M60" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="61" spans="1:13">
@@ -9039,25 +8984,25 @@
         <v>1</v>
       </c>
       <c r="B61" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C61" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="D61" t="s">
+        <v>528</v>
+      </c>
+      <c r="E61" t="s">
+        <v>496</v>
+      </c>
+      <c r="F61" t="s">
+        <v>496</v>
+      </c>
+      <c r="G61" t="s">
+        <v>505</v>
+      </c>
+      <c r="H61" t="s">
         <v>527</v>
-      </c>
-      <c r="E61" t="s">
-        <v>495</v>
-      </c>
-      <c r="F61" t="s">
-        <v>495</v>
-      </c>
-      <c r="G61" t="s">
-        <v>504</v>
-      </c>
-      <c r="H61" t="s">
-        <v>526</v>
       </c>
       <c r="I61">
         <v>1</v>
@@ -9066,13 +9011,13 @@
         <v>500</v>
       </c>
       <c r="K61" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="L61" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="M61" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="62" spans="1:13">
@@ -9080,25 +9025,25 @@
         <v>1</v>
       </c>
       <c r="B62" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C62" t="s">
         <v>408</v>
       </c>
       <c r="D62" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="E62" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="F62" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="G62" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H62" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="I62">
         <v>1</v>
@@ -9107,13 +9052,13 @@
         <v>350</v>
       </c>
       <c r="K62" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="L62" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="M62" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="63" spans="1:13">
@@ -9121,25 +9066,25 @@
         <v>1</v>
       </c>
       <c r="B63" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C63" t="s">
         <v>408</v>
       </c>
       <c r="D63" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="E63" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F63" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="G63" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H63" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="I63">
         <v>1</v>
@@ -9148,13 +9093,13 @@
         <v>480</v>
       </c>
       <c r="K63" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="L63" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="M63" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="64" spans="1:13">
@@ -9162,25 +9107,25 @@
         <v>1</v>
       </c>
       <c r="B64" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C64" t="s">
         <v>408</v>
       </c>
       <c r="D64" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="E64" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="F64" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="G64" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H64" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="I64">
         <v>1</v>
@@ -9189,13 +9134,13 @@
         <v>590</v>
       </c>
       <c r="K64" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="L64" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="M64" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="65" spans="1:13">
@@ -9203,25 +9148,25 @@
         <v>1</v>
       </c>
       <c r="B65" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C65" t="s">
         <v>408</v>
       </c>
       <c r="D65" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="E65" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="F65" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="G65" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H65" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="I65">
         <v>1</v>
@@ -9230,13 +9175,13 @@
         <v>460</v>
       </c>
       <c r="K65" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="L65" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="M65" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="66" spans="1:13">
@@ -9244,25 +9189,25 @@
         <v>1</v>
       </c>
       <c r="B66" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C66" t="s">
         <v>408</v>
       </c>
       <c r="D66" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="E66" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F66" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="G66" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H66" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="I66">
         <v>1</v>
@@ -9271,13 +9216,13 @@
         <v>630</v>
       </c>
       <c r="K66" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="L66" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="M66" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="67" spans="1:13">
@@ -9285,25 +9230,25 @@
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C67" t="s">
         <v>408</v>
       </c>
       <c r="D67" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="E67" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="F67" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="G67" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H67" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="I67">
         <v>1</v>
@@ -9312,13 +9257,13 @@
         <v>690</v>
       </c>
       <c r="K67" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="L67" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="M67" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="68" spans="1:13">
@@ -9326,40 +9271,40 @@
         <v>1</v>
       </c>
       <c r="B68" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C68" t="s">
         <v>408</v>
       </c>
       <c r="D68" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="E68" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="F68" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="G68" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H68" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="I68">
         <v>1</v>
       </c>
       <c r="J68" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="K68" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="L68" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="M68" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="69" spans="1:13">
@@ -9367,25 +9312,25 @@
         <v>2</v>
       </c>
       <c r="B69" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C69" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="D69" t="s">
+        <v>528</v>
+      </c>
+      <c r="E69" t="s">
+        <v>496</v>
+      </c>
+      <c r="F69" t="s">
+        <v>496</v>
+      </c>
+      <c r="G69" t="s">
+        <v>529</v>
+      </c>
+      <c r="H69" t="s">
         <v>527</v>
-      </c>
-      <c r="E69" t="s">
-        <v>495</v>
-      </c>
-      <c r="F69" t="s">
-        <v>495</v>
-      </c>
-      <c r="G69" t="s">
-        <v>528</v>
-      </c>
-      <c r="H69" t="s">
-        <v>526</v>
       </c>
       <c r="I69">
         <v>1</v>
@@ -9394,13 +9339,13 @@
         <v>100</v>
       </c>
       <c r="K69" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="L69" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="M69" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="70" spans="1:13">
@@ -9408,25 +9353,25 @@
         <v>2</v>
       </c>
       <c r="B70" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C70" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="D70" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="E70" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="F70" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="G70" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="H70" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="I70">
         <v>1</v>
@@ -9435,13 +9380,13 @@
         <v>100</v>
       </c>
       <c r="K70" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="L70" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="M70" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="71" spans="1:13">
@@ -9449,25 +9394,25 @@
         <v>2</v>
       </c>
       <c r="B71" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C71" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="D71" t="s">
+        <v>528</v>
+      </c>
+      <c r="E71" t="s">
+        <v>496</v>
+      </c>
+      <c r="F71" t="s">
+        <v>496</v>
+      </c>
+      <c r="G71" t="s">
+        <v>535</v>
+      </c>
+      <c r="H71" t="s">
         <v>527</v>
-      </c>
-      <c r="E71" t="s">
-        <v>495</v>
-      </c>
-      <c r="F71" t="s">
-        <v>495</v>
-      </c>
-      <c r="G71" t="s">
-        <v>534</v>
-      </c>
-      <c r="H71" t="s">
-        <v>526</v>
       </c>
       <c r="I71">
         <v>1</v>
@@ -9476,13 +9421,13 @@
         <v>200</v>
       </c>
       <c r="K71" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="L71" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="M71" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="72" ht="13.5" customHeight="1" spans="1:13">
@@ -9490,25 +9435,25 @@
         <v>2</v>
       </c>
       <c r="B72" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C72" t="s">
         <v>408</v>
       </c>
       <c r="D72" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="E72" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="F72" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="G72" t="s">
         <v>195</v>
       </c>
       <c r="H72" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="I72">
         <v>1</v>
@@ -9517,13 +9462,13 @@
         <v>35</v>
       </c>
       <c r="K72" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="L72" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="M72" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="73" spans="1:13">
@@ -9531,25 +9476,25 @@
         <v>2</v>
       </c>
       <c r="B73" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C73" t="s">
         <v>408</v>
       </c>
       <c r="D73" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="E73" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="F73" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="G73" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H73" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="I73">
         <v>1</v>
@@ -9558,13 +9503,13 @@
         <v>100</v>
       </c>
       <c r="K73" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="L73" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="M73" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="74" spans="1:13">
@@ -9572,25 +9517,25 @@
         <v>2</v>
       </c>
       <c r="B74" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C74" t="s">
         <v>408</v>
       </c>
       <c r="D74" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="E74" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="F74" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="G74" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="H74" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="I74">
         <v>1</v>
@@ -9599,13 +9544,13 @@
         <v>700</v>
       </c>
       <c r="K74" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="L74" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="M74" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="75" spans="1:13">
@@ -9613,25 +9558,25 @@
         <v>2</v>
       </c>
       <c r="B75" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C75" t="s">
         <v>408</v>
       </c>
       <c r="D75" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="E75" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="F75" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="G75" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="H75" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="I75">
         <v>1</v>
@@ -9640,13 +9585,13 @@
         <v>1000</v>
       </c>
       <c r="K75" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="L75" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="M75" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="76" spans="1:13">
@@ -9654,25 +9599,25 @@
         <v>2</v>
       </c>
       <c r="B76" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C76" t="s">
         <v>408</v>
       </c>
       <c r="D76" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="E76" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="F76" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="G76" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="H76" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="I76">
         <v>1</v>
@@ -9681,13 +9626,13 @@
         <v>1200</v>
       </c>
       <c r="K76" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="L76" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="M76" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="77" spans="1:13">
@@ -9695,25 +9640,25 @@
         <v>2</v>
       </c>
       <c r="B77" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C77" t="s">
         <v>408</v>
       </c>
       <c r="D77" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="E77" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="F77" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="G77" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="H77" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="I77">
         <v>1</v>
@@ -9722,13 +9667,13 @@
         <v>500</v>
       </c>
       <c r="K77" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="L77" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="M77" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="78" spans="1:13">
@@ -9736,25 +9681,25 @@
         <v>2</v>
       </c>
       <c r="B78" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C78" t="s">
         <v>408</v>
       </c>
       <c r="D78" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="E78" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="F78" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="G78" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="H78" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="I78">
         <v>1</v>
@@ -9763,13 +9708,13 @@
         <v>700</v>
       </c>
       <c r="K78" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="L78" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="M78" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="79" spans="1:13">
@@ -9777,25 +9722,25 @@
         <v>2</v>
       </c>
       <c r="B79" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C79" t="s">
         <v>408</v>
       </c>
       <c r="D79" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="E79" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="F79" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="G79" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="H79" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="I79">
         <v>1</v>
@@ -9804,13 +9749,13 @@
         <v>800</v>
       </c>
       <c r="K79" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="L79" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="M79" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="80" spans="1:13">
@@ -9818,25 +9763,25 @@
         <v>2</v>
       </c>
       <c r="B80" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C80" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="D80" t="s">
+        <v>528</v>
+      </c>
+      <c r="E80" t="s">
+        <v>496</v>
+      </c>
+      <c r="F80" t="s">
+        <v>496</v>
+      </c>
+      <c r="G80" t="s">
+        <v>508</v>
+      </c>
+      <c r="H80" t="s">
         <v>527</v>
-      </c>
-      <c r="E80" t="s">
-        <v>495</v>
-      </c>
-      <c r="F80" t="s">
-        <v>495</v>
-      </c>
-      <c r="G80" t="s">
-        <v>507</v>
-      </c>
-      <c r="H80" t="s">
-        <v>526</v>
       </c>
       <c r="I80">
         <v>1</v>
@@ -9845,13 +9790,13 @@
         <v>220</v>
       </c>
       <c r="K80" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="L80" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="M80" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="81" spans="1:13">
@@ -9859,25 +9804,25 @@
         <v>2</v>
       </c>
       <c r="B81" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C81" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="D81" t="s">
+        <v>528</v>
+      </c>
+      <c r="E81" t="s">
+        <v>496</v>
+      </c>
+      <c r="F81" t="s">
+        <v>496</v>
+      </c>
+      <c r="G81" t="s">
+        <v>511</v>
+      </c>
+      <c r="H81" t="s">
         <v>527</v>
-      </c>
-      <c r="E81" t="s">
-        <v>495</v>
-      </c>
-      <c r="F81" t="s">
-        <v>495</v>
-      </c>
-      <c r="G81" t="s">
-        <v>510</v>
-      </c>
-      <c r="H81" t="s">
-        <v>526</v>
       </c>
       <c r="I81">
         <v>1</v>
@@ -9886,13 +9831,13 @@
         <v>300</v>
       </c>
       <c r="K81" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="L81" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="M81" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="82" spans="1:13">
@@ -9900,25 +9845,25 @@
         <v>2</v>
       </c>
       <c r="B82" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C82" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="D82" t="s">
+        <v>528</v>
+      </c>
+      <c r="E82" t="s">
+        <v>496</v>
+      </c>
+      <c r="F82" t="s">
+        <v>496</v>
+      </c>
+      <c r="G82" t="s">
+        <v>505</v>
+      </c>
+      <c r="H82" t="s">
         <v>527</v>
-      </c>
-      <c r="E82" t="s">
-        <v>495</v>
-      </c>
-      <c r="F82" t="s">
-        <v>495</v>
-      </c>
-      <c r="G82" t="s">
-        <v>504</v>
-      </c>
-      <c r="H82" t="s">
-        <v>526</v>
       </c>
       <c r="I82">
         <v>1</v>
@@ -9927,13 +9872,13 @@
         <v>500</v>
       </c>
       <c r="K82" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="L82" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="M82" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="83" spans="1:13">
@@ -9941,25 +9886,25 @@
         <v>2</v>
       </c>
       <c r="B83" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C83" t="s">
         <v>408</v>
       </c>
       <c r="D83" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="E83" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="F83" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="G83" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H83" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="I83">
         <v>1</v>
@@ -9968,13 +9913,13 @@
         <v>350</v>
       </c>
       <c r="K83" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="L83" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="M83" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="84" spans="1:13">
@@ -9982,25 +9927,25 @@
         <v>2</v>
       </c>
       <c r="B84" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C84" t="s">
         <v>408</v>
       </c>
       <c r="D84" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="E84" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F84" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="G84" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H84" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="I84">
         <v>1</v>
@@ -10009,13 +9954,13 @@
         <v>480</v>
       </c>
       <c r="K84" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="L84" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="M84" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="85" spans="1:13">
@@ -10023,25 +9968,25 @@
         <v>2</v>
       </c>
       <c r="B85" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C85" t="s">
         <v>408</v>
       </c>
       <c r="D85" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="E85" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="F85" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="G85" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H85" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="I85">
         <v>1</v>
@@ -10050,13 +9995,13 @@
         <v>590</v>
       </c>
       <c r="K85" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="L85" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="M85" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="86" spans="1:13">
@@ -10064,25 +10009,25 @@
         <v>2</v>
       </c>
       <c r="B86" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C86" t="s">
         <v>408</v>
       </c>
       <c r="D86" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="E86" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="F86" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="G86" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H86" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="I86">
         <v>1</v>
@@ -10091,13 +10036,13 @@
         <v>450</v>
       </c>
       <c r="K86" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="L86" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="M86" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="87" spans="1:13">
@@ -10105,25 +10050,25 @@
         <v>2</v>
       </c>
       <c r="B87" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C87" t="s">
         <v>408</v>
       </c>
       <c r="D87" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="E87" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F87" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="G87" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H87" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="I87">
         <v>1</v>
@@ -10132,13 +10077,13 @@
         <v>630</v>
       </c>
       <c r="K87" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="L87" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="M87" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="88" spans="1:13">
@@ -10146,25 +10091,25 @@
         <v>2</v>
       </c>
       <c r="B88" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C88" t="s">
         <v>408</v>
       </c>
       <c r="D88" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="E88" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="F88" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="G88" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H88" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="I88">
         <v>1</v>
@@ -10173,13 +10118,13 @@
         <v>690</v>
       </c>
       <c r="K88" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="L88" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="M88" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="89" spans="1:13">
@@ -10187,40 +10132,40 @@
         <v>2</v>
       </c>
       <c r="B89" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C89" t="s">
         <v>408</v>
       </c>
       <c r="D89" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="E89" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="F89" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="G89" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H89" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="I89">
         <v>1</v>
       </c>
       <c r="J89" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="K89" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="L89" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="M89" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
   </sheetData>
@@ -10252,14 +10197,14 @@
   <sheetData>
     <row r="2" spans="2:12">
       <c r="B2" s="1" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="H2" s="1" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -10268,68 +10213,68 @@
     </row>
     <row r="3" ht="15" spans="2:12">
       <c r="B3" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C3" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="D3" t="s">
         <v>76</v>
       </c>
       <c r="E3" t="s">
+        <v>559</v>
+      </c>
+      <c r="F3" t="s">
+        <v>451</v>
+      </c>
+      <c r="H3" t="s">
+        <v>557</v>
+      </c>
+      <c r="I3" t="s">
         <v>558</v>
-      </c>
-      <c r="F3" t="s">
-        <v>450</v>
-      </c>
-      <c r="H3" t="s">
-        <v>556</v>
-      </c>
-      <c r="I3" t="s">
-        <v>557</v>
       </c>
       <c r="J3" t="s">
         <v>76</v>
       </c>
       <c r="K3" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="L3" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="4" ht="15.6" customHeight="1" spans="2:11">
       <c r="B4" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C4" s="2">
         <v>44565.8333333333</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="4" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="H4" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="I4" s="2">
         <v>44565.8333333333</v>
       </c>
       <c r="J4" s="3"/>
       <c r="K4" s="4" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="5" ht="15" spans="2:12">
       <c r="B5" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C5" s="2">
         <v>44565.8541666667</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="4" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="H5" t="s">
         <v>409</v>
@@ -10339,7 +10284,7 @@
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="4" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="L5" s="4" t="s">
         <v>171</v>
@@ -10347,23 +10292,23 @@
     </row>
     <row r="6" ht="15" spans="2:12">
       <c r="B6" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="4" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>171</v>
       </c>
       <c r="H6" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="4" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="L6" s="4" t="s">
         <v>171</v>
@@ -10371,23 +10316,23 @@
     </row>
     <row r="7" ht="15" spans="2:12">
       <c r="B7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="4" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>171</v>
       </c>
       <c r="H7" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="4" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="L7" s="4" t="s">
         <v>171</v>
@@ -10395,12 +10340,12 @@
     </row>
     <row r="8" ht="15" spans="8:12">
       <c r="H8" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="4" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="L8" s="4" t="s">
         <v>171</v>
@@ -10408,12 +10353,12 @@
     </row>
     <row r="9" ht="15" spans="8:12">
       <c r="H9" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="4" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="L9" s="4" t="s">
         <v>171</v>
@@ -10421,12 +10366,12 @@
     </row>
     <row r="10" ht="15" spans="8:12">
       <c r="H10" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="K10" s="4" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="L10" s="4" t="s">
         <v>171</v>
@@ -10434,12 +10379,12 @@
     </row>
     <row r="11" ht="15" spans="8:12">
       <c r="H11" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="4" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="L11" s="4" t="s">
         <v>171</v>
@@ -10447,12 +10392,12 @@
     </row>
     <row r="12" ht="15" spans="8:12">
       <c r="H12" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="4" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="L12" s="4" t="s">
         <v>171</v>
@@ -10460,12 +10405,12 @@
     </row>
     <row r="13" ht="15" spans="8:12">
       <c r="H13" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="K13" s="4" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="L13" s="4" t="s">
         <v>171</v>
@@ -10473,12 +10418,12 @@
     </row>
     <row r="14" ht="15" spans="8:12">
       <c r="H14" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="K14" s="4" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="L14" s="4" t="s">
         <v>171</v>
@@ -10486,12 +10431,12 @@
     </row>
     <row r="15" ht="15" spans="8:12">
       <c r="H15" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="4" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="L15" s="4" t="s">
         <v>171</v>
@@ -10499,12 +10444,12 @@
     </row>
     <row r="16" ht="15" spans="8:12">
       <c r="H16" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="4" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="L16" s="4" t="s">
         <v>171</v>
@@ -10559,12 +10504,12 @@
     <col min="12" max="12" width="0.375" style="16" customWidth="1"/>
     <col min="13" max="13" width="16.375" style="16" customWidth="1"/>
     <col min="14" max="14" width="1.125" style="16" customWidth="1"/>
-    <col min="15" max="15" width="3.625" style="42" customWidth="1"/>
-    <col min="16" max="16" width="9" style="42"/>
+    <col min="15" max="15" width="3.625" style="43" customWidth="1"/>
+    <col min="16" max="16" width="9" style="43"/>
     <col min="17" max="17" width="8" style="16" customWidth="1"/>
     <col min="18" max="18" width="13.625" style="17" customWidth="1"/>
     <col min="19" max="19" width="9.375" style="17" customWidth="1"/>
-    <col min="20" max="20" width="9" style="42"/>
+    <col min="20" max="20" width="9" style="43"/>
     <col min="21" max="21" width="14.75" style="16" customWidth="1"/>
     <col min="22" max="22" width="36.25" style="16" customWidth="1"/>
     <col min="23" max="23" width="1.375" style="16" customWidth="1"/>
@@ -10624,10 +10569,10 @@
       <c r="M4" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="O4" s="42" t="s">
+      <c r="O4" s="43" t="s">
         <v>167</v>
       </c>
-      <c r="P4" s="42" t="s">
+      <c r="P4" s="43" t="s">
         <v>168</v>
       </c>
       <c r="Q4" s="16" t="s">
@@ -10658,7 +10603,7 @@
       </c>
       <c r="G5" s="132"/>
       <c r="H5" s="133"/>
-      <c r="I5" s="27" t="s">
+      <c r="I5" s="28" t="s">
         <v>176</v>
       </c>
       <c r="K5" s="16" t="s">
@@ -10667,10 +10612,10 @@
       <c r="M5" s="16" t="s">
         <v>178</v>
       </c>
-      <c r="O5" s="42" t="s">
+      <c r="O5" s="43" t="s">
         <v>167</v>
       </c>
-      <c r="P5" s="42" t="s">
+      <c r="P5" s="43" t="s">
         <v>179</v>
       </c>
       <c r="Q5" s="16" t="s">
@@ -10710,7 +10655,7 @@
       <c r="M6" s="16" t="s">
         <v>186</v>
       </c>
-      <c r="O6" s="42" t="s">
+      <c r="O6" s="43" t="s">
         <v>167</v>
       </c>
       <c r="V6" s="16" t="s">
@@ -10738,7 +10683,7 @@
       <c r="M7" s="16" t="s">
         <v>192</v>
       </c>
-      <c r="O7" s="42" t="s">
+      <c r="O7" s="43" t="s">
         <v>167</v>
       </c>
       <c r="S7" s="118" t="s">
@@ -10760,10 +10705,10 @@
       <c r="I8" s="93" t="s">
         <v>194</v>
       </c>
-      <c r="O8" s="42" t="s">
+      <c r="O8" s="43" t="s">
         <v>167</v>
       </c>
-      <c r="P8" s="42" t="s">
+      <c r="P8" s="43" t="s">
         <v>195</v>
       </c>
       <c r="Q8" s="16" t="s">
@@ -10781,22 +10726,22 @@
       <c r="U8" s="121" t="s">
         <v>196</v>
       </c>
-      <c r="V8" s="39">
+      <c r="V8" s="40">
         <v>10</v>
       </c>
-      <c r="X8" s="39">
+      <c r="X8" s="40">
         <v>8151.9</v>
       </c>
       <c r="Y8" s="16" t="s">
         <v>197</v>
       </c>
-      <c r="Z8" s="39">
+      <c r="Z8" s="40">
         <v>66.1</v>
       </c>
       <c r="AA8" s="16" t="s">
         <v>198</v>
       </c>
-      <c r="AB8" s="39"/>
+      <c r="AB8" s="40"/>
       <c r="AC8" s="16" t="s">
         <v>197</v>
       </c>
@@ -10811,7 +10756,7 @@
       <c r="E9" s="16" t="s">
         <v>201</v>
       </c>
-      <c r="O9" s="42" t="s">
+      <c r="O9" s="43" t="s">
         <v>167</v>
       </c>
       <c r="S9" s="118" t="s">
@@ -10828,16 +10773,16 @@
       <c r="E10" s="16" t="s">
         <v>204</v>
       </c>
-      <c r="G10" s="217" t="s">
+      <c r="G10" s="215" t="s">
         <v>205</v>
       </c>
       <c r="H10" s="62" t="s">
         <v>206</v>
       </c>
-      <c r="O10" s="42" t="s">
+      <c r="O10" s="43" t="s">
         <v>167</v>
       </c>
-      <c r="P10" s="42" t="s">
+      <c r="P10" s="43" t="s">
         <v>207</v>
       </c>
       <c r="Q10" s="119" t="s">
@@ -10872,7 +10817,7 @@
       <c r="M11" s="71" t="s">
         <v>214</v>
       </c>
-      <c r="O11" s="42" t="s">
+      <c r="O11" s="43" t="s">
         <v>167</v>
       </c>
       <c r="Q11" s="119"/>
@@ -10898,7 +10843,7 @@
         <v>212</v>
       </c>
       <c r="H12" s="133"/>
-      <c r="I12" s="27" t="s">
+      <c r="I12" s="28" t="s">
         <v>218</v>
       </c>
       <c r="K12" s="16" t="s">
@@ -10907,10 +10852,10 @@
       <c r="M12" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="O12" s="42" t="s">
+      <c r="O12" s="43" t="s">
         <v>167</v>
       </c>
-      <c r="P12" s="42" t="s">
+      <c r="P12" s="43" t="s">
         <v>219</v>
       </c>
       <c r="Q12" s="119" t="s">
@@ -10949,10 +10894,10 @@
       <c r="M13" s="16" t="s">
         <v>224</v>
       </c>
-      <c r="O13" s="42" t="s">
+      <c r="O13" s="43" t="s">
         <v>167</v>
       </c>
-      <c r="P13" s="42" t="s">
+      <c r="P13" s="43" t="s">
         <v>225</v>
       </c>
       <c r="Q13" s="119" t="s">
@@ -11021,10 +10966,10 @@
         <v>237</v>
       </c>
       <c r="I16" s="95"/>
-      <c r="O16" s="42" t="s">
+      <c r="O16" s="43" t="s">
         <v>167</v>
       </c>
-      <c r="P16" s="42" t="s">
+      <c r="P16" s="43" t="s">
         <v>238</v>
       </c>
       <c r="Q16" s="119"/>
@@ -11059,11 +11004,11 @@
       <c r="I18" s="101" t="s">
         <v>245</v>
       </c>
-      <c r="N18" s="42"/>
+      <c r="N18" s="43"/>
       <c r="P18" s="16"/>
       <c r="Q18" s="17"/>
-      <c r="R18" s="42"/>
-      <c r="S18" s="42"/>
+      <c r="R18" s="43"/>
+      <c r="S18" s="43"/>
       <c r="T18" s="16"/>
     </row>
     <row r="19" ht="18" customHeight="1" spans="2:20">
@@ -11075,11 +11020,11 @@
       </c>
       <c r="E19" s="17"/>
       <c r="I19" s="17"/>
-      <c r="N19" s="42"/>
+      <c r="N19" s="43"/>
       <c r="P19" s="16"/>
       <c r="Q19" s="17"/>
-      <c r="R19" s="42"/>
-      <c r="S19" s="42"/>
+      <c r="R19" s="43"/>
+      <c r="S19" s="43"/>
       <c r="T19" s="16"/>
     </row>
     <row r="20" ht="18" customHeight="1" spans="2:20">
@@ -11093,11 +11038,11 @@
       <c r="G20" s="16" t="s">
         <v>250</v>
       </c>
-      <c r="N20" s="42"/>
+      <c r="N20" s="43"/>
       <c r="P20" s="16"/>
       <c r="Q20" s="17"/>
-      <c r="R20" s="42"/>
-      <c r="S20" s="42"/>
+      <c r="R20" s="43"/>
+      <c r="S20" s="43"/>
       <c r="T20" s="16"/>
     </row>
     <row r="21" ht="18" customHeight="1" spans="2:20">
@@ -11108,11 +11053,11 @@
         <v>44754</v>
       </c>
       <c r="E21" s="72"/>
-      <c r="N21" s="42"/>
+      <c r="N21" s="43"/>
       <c r="P21" s="16"/>
       <c r="Q21" s="17"/>
-      <c r="R21" s="42"/>
-      <c r="S21" s="42"/>
+      <c r="R21" s="43"/>
+      <c r="S21" s="43"/>
       <c r="T21" s="16"/>
     </row>
     <row r="22" ht="18" customHeight="1" spans="2:25">
@@ -11142,18 +11087,18 @@
       <c r="D23" s="73"/>
       <c r="E23" s="73"/>
       <c r="J23" s="17"/>
-      <c r="O23" s="39"/>
-      <c r="P23" s="39" t="s">
+      <c r="O23" s="40"/>
+      <c r="P23" s="40" t="s">
         <v>255</v>
       </c>
-      <c r="Q23" s="39" t="s">
+      <c r="Q23" s="40" t="s">
         <v>146</v>
       </c>
-      <c r="R23" s="39" t="s">
+      <c r="R23" s="40" t="s">
         <v>148</v>
       </c>
-      <c r="S23" s="39"/>
-      <c r="T23" s="40" t="s">
+      <c r="S23" s="40"/>
+      <c r="T23" s="41" t="s">
         <v>256</v>
       </c>
     </row>
@@ -11168,14 +11113,14 @@
       <c r="G24" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="O24" s="41" t="s">
+      <c r="O24" s="42" t="s">
         <v>167</v>
       </c>
-      <c r="P24" s="39"/>
-      <c r="Q24" s="39"/>
-      <c r="R24" s="39"/>
-      <c r="S24" s="39"/>
-      <c r="T24" s="40"/>
+      <c r="P24" s="40"/>
+      <c r="Q24" s="40"/>
+      <c r="R24" s="40"/>
+      <c r="S24" s="40"/>
+      <c r="T24" s="41"/>
     </row>
     <row r="25" ht="18" customHeight="1" spans="2:20">
       <c r="B25" s="16" t="s">
@@ -11185,14 +11130,14 @@
         <v>259</v>
       </c>
       <c r="E25" s="17"/>
-      <c r="O25" s="41" t="s">
+      <c r="O25" s="42" t="s">
         <v>167</v>
       </c>
-      <c r="P25" s="39"/>
-      <c r="Q25" s="39"/>
-      <c r="R25" s="39"/>
-      <c r="S25" s="39"/>
-      <c r="T25" s="40"/>
+      <c r="P25" s="40"/>
+      <c r="Q25" s="40"/>
+      <c r="R25" s="40"/>
+      <c r="S25" s="40"/>
+      <c r="T25" s="41"/>
     </row>
     <row r="26" ht="18" customHeight="1" spans="2:20">
       <c r="B26" s="17" t="s">
@@ -11204,14 +11149,14 @@
       <c r="E26" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="O26" s="41" t="s">
+      <c r="O26" s="42" t="s">
         <v>167</v>
       </c>
-      <c r="P26" s="39"/>
-      <c r="Q26" s="39"/>
-      <c r="R26" s="39"/>
-      <c r="S26" s="39"/>
-      <c r="T26" s="40"/>
+      <c r="P26" s="40"/>
+      <c r="Q26" s="40"/>
+      <c r="R26" s="40"/>
+      <c r="S26" s="40"/>
+      <c r="T26" s="41"/>
     </row>
     <row r="27" ht="18" customHeight="1" spans="2:20">
       <c r="B27" s="16" t="s">
@@ -11221,12 +11166,12 @@
         <v>262</v>
       </c>
       <c r="E27" s="17"/>
-      <c r="O27" s="39"/>
-      <c r="P27" s="39"/>
-      <c r="Q27" s="39"/>
-      <c r="R27" s="39"/>
-      <c r="S27" s="39"/>
-      <c r="T27" s="40"/>
+      <c r="O27" s="40"/>
+      <c r="P27" s="40"/>
+      <c r="Q27" s="40"/>
+      <c r="R27" s="40"/>
+      <c r="S27" s="40"/>
+      <c r="T27" s="41"/>
     </row>
     <row r="28" ht="18" customHeight="1" spans="2:20">
       <c r="B28" s="16" t="s">
@@ -11238,24 +11183,24 @@
       <c r="E28" s="17" t="s">
         <v>263</v>
       </c>
-      <c r="O28" s="39"/>
-      <c r="P28" s="39"/>
-      <c r="Q28" s="39"/>
-      <c r="R28" s="39"/>
-      <c r="S28" s="39"/>
-      <c r="T28" s="40"/>
+      <c r="O28" s="40"/>
+      <c r="P28" s="40"/>
+      <c r="Q28" s="40"/>
+      <c r="R28" s="40"/>
+      <c r="S28" s="40"/>
+      <c r="T28" s="41"/>
     </row>
     <row r="29" ht="18" customHeight="1" spans="4:20">
       <c r="D29" s="74" t="s">
         <v>264</v>
       </c>
       <c r="E29" s="75"/>
-      <c r="O29" s="39"/>
-      <c r="P29" s="39"/>
-      <c r="Q29" s="39"/>
-      <c r="R29" s="39"/>
-      <c r="S29" s="39"/>
-      <c r="T29" s="40"/>
+      <c r="O29" s="40"/>
+      <c r="P29" s="40"/>
+      <c r="Q29" s="40"/>
+      <c r="R29" s="40"/>
+      <c r="S29" s="40"/>
+      <c r="T29" s="41"/>
     </row>
     <row r="30" ht="18" customHeight="1" spans="4:20">
       <c r="D30" s="76" t="s">
@@ -11263,12 +11208,12 @@
       </c>
       <c r="E30" s="77"/>
       <c r="M30" s="17"/>
-      <c r="O30" s="39"/>
-      <c r="P30" s="39"/>
-      <c r="Q30" s="39"/>
-      <c r="R30" s="39"/>
-      <c r="S30" s="39"/>
-      <c r="T30" s="40"/>
+      <c r="O30" s="40"/>
+      <c r="P30" s="40"/>
+      <c r="Q30" s="40"/>
+      <c r="R30" s="40"/>
+      <c r="S30" s="40"/>
+      <c r="T30" s="41"/>
     </row>
     <row r="31" ht="18" customHeight="1" spans="4:20">
       <c r="D31" s="78" t="s">
@@ -11276,23 +11221,23 @@
       </c>
       <c r="E31" s="79"/>
       <c r="M31" s="17"/>
-      <c r="O31" s="39"/>
-      <c r="P31" s="39"/>
-      <c r="Q31" s="39"/>
-      <c r="R31" s="39"/>
-      <c r="S31" s="39"/>
-      <c r="T31" s="40"/>
+      <c r="O31" s="40"/>
+      <c r="P31" s="40"/>
+      <c r="Q31" s="40"/>
+      <c r="R31" s="40"/>
+      <c r="S31" s="40"/>
+      <c r="T31" s="41"/>
     </row>
     <row r="32" ht="18" customHeight="1" spans="4:20">
       <c r="D32" s="16"/>
       <c r="E32" s="17"/>
       <c r="M32" s="17"/>
-      <c r="O32" s="39"/>
-      <c r="P32" s="39"/>
-      <c r="Q32" s="39"/>
-      <c r="R32" s="39"/>
-      <c r="S32" s="39"/>
-      <c r="T32" s="40"/>
+      <c r="O32" s="40"/>
+      <c r="P32" s="40"/>
+      <c r="Q32" s="40"/>
+      <c r="R32" s="40"/>
+      <c r="S32" s="40"/>
+      <c r="T32" s="41"/>
     </row>
     <row r="33" ht="18" customHeight="1" spans="2:20">
       <c r="B33" s="6" t="s">
@@ -11308,12 +11253,12 @@
       <c r="J33" s="7"/>
       <c r="K33" s="7"/>
       <c r="M33" s="135"/>
-      <c r="O33" s="39"/>
-      <c r="P33" s="39"/>
-      <c r="Q33" s="39"/>
-      <c r="R33" s="39"/>
-      <c r="S33" s="39"/>
-      <c r="T33" s="40"/>
+      <c r="O33" s="40"/>
+      <c r="P33" s="40"/>
+      <c r="Q33" s="40"/>
+      <c r="R33" s="40"/>
+      <c r="S33" s="40"/>
+      <c r="T33" s="41"/>
     </row>
     <row r="34" ht="18" customHeight="1" spans="2:17">
       <c r="B34" s="8" t="s">
@@ -11343,7 +11288,7 @@
       <c r="M34" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="P34" s="217" t="s">
+      <c r="P34" s="215" t="s">
         <v>273</v>
       </c>
       <c r="Q34" s="62" t="s">
@@ -11532,12 +11477,12 @@
     <col min="14" max="14" width="15.625" style="16" customWidth="1"/>
     <col min="15" max="15" width="1" style="16" customWidth="1"/>
     <col min="16" max="16" width="1.125" style="16" customWidth="1"/>
-    <col min="17" max="17" width="3.625" style="42" customWidth="1"/>
-    <col min="18" max="18" width="9" style="42"/>
+    <col min="17" max="17" width="3.625" style="43" customWidth="1"/>
+    <col min="18" max="18" width="9" style="43"/>
     <col min="19" max="19" width="8" style="16" customWidth="1"/>
     <col min="20" max="20" width="15.375" style="17" customWidth="1"/>
     <col min="21" max="21" width="8.875" style="17" customWidth="1"/>
-    <col min="22" max="22" width="9" style="42"/>
+    <col min="22" max="22" width="9" style="43"/>
     <col min="23" max="23" width="14.75" style="16" customWidth="1"/>
     <col min="24" max="24" width="21.875" style="16" customWidth="1"/>
     <col min="25" max="25" width="1.375" style="16" customWidth="1"/>
@@ -11620,10 +11565,10 @@
         <v>294</v>
       </c>
       <c r="N4" s="95"/>
-      <c r="Q4" s="41" t="s">
+      <c r="Q4" s="42" t="s">
         <v>167</v>
       </c>
-      <c r="R4" s="42" t="s">
+      <c r="R4" s="43" t="s">
         <v>154</v>
       </c>
       <c r="S4" s="16" t="s">
@@ -11671,10 +11616,10 @@
       <c r="N5" s="8" t="s">
         <v>298</v>
       </c>
-      <c r="Q5" s="41" t="s">
+      <c r="Q5" s="42" t="s">
         <v>167</v>
       </c>
-      <c r="R5" s="42" t="s">
+      <c r="R5" s="43" t="s">
         <v>207</v>
       </c>
       <c r="S5" s="119" t="s">
@@ -11718,10 +11663,10 @@
         <v>300</v>
       </c>
       <c r="N6" s="95"/>
-      <c r="Q6" s="41" t="s">
+      <c r="Q6" s="42" t="s">
         <v>167</v>
       </c>
-      <c r="R6" s="42" t="s">
+      <c r="R6" s="43" t="s">
         <v>301</v>
       </c>
       <c r="S6" s="119" t="s">
@@ -11758,8 +11703,8 @@
         <v>303</v>
       </c>
       <c r="N7" s="95"/>
-      <c r="Q7" s="41"/>
-      <c r="R7" s="42" t="s">
+      <c r="Q7" s="42"/>
+      <c r="R7" s="43" t="s">
         <v>304</v>
       </c>
       <c r="S7" s="16" t="s">
@@ -11777,22 +11722,22 @@
       <c r="W7" s="121" t="s">
         <v>196</v>
       </c>
-      <c r="X7" s="39">
+      <c r="X7" s="40">
         <v>10</v>
       </c>
-      <c r="Z7" s="39">
+      <c r="Z7" s="40">
         <v>8151.9</v>
       </c>
       <c r="AA7" s="16" t="s">
         <v>197</v>
       </c>
-      <c r="AB7" s="39">
+      <c r="AB7" s="40">
         <v>66.1</v>
       </c>
       <c r="AC7" s="16" t="s">
         <v>198</v>
       </c>
-      <c r="AD7" s="39"/>
+      <c r="AD7" s="40"/>
       <c r="AE7" s="16" t="s">
         <v>197</v>
       </c>
@@ -11808,7 +11753,7 @@
         <v>188</v>
       </c>
       <c r="E8" s="17"/>
-      <c r="G8" s="217" t="s">
+      <c r="G8" s="215" t="s">
         <v>205</v>
       </c>
       <c r="H8" s="62" t="s">
@@ -11821,7 +11766,7 @@
         <v>303</v>
       </c>
       <c r="N8" s="95"/>
-      <c r="Q8" s="41"/>
+      <c r="Q8" s="42"/>
       <c r="T8" s="117"/>
       <c r="U8" s="118" t="s">
         <v>170</v>
@@ -11852,8 +11797,8 @@
         <v>178</v>
       </c>
       <c r="N9" s="95"/>
-      <c r="Q9" s="41"/>
-      <c r="R9" s="42" t="s">
+      <c r="Q9" s="42"/>
+      <c r="R9" s="43" t="s">
         <v>308</v>
       </c>
       <c r="S9" s="16" t="s">
@@ -11889,7 +11834,7 @@
         <v>192</v>
       </c>
       <c r="N10" s="95"/>
-      <c r="Q10" s="41"/>
+      <c r="Q10" s="42"/>
       <c r="U10" s="122"/>
       <c r="V10" s="123"/>
     </row>
@@ -11910,7 +11855,7 @@
         <v>309</v>
       </c>
       <c r="N11" s="95"/>
-      <c r="Q11" s="41"/>
+      <c r="Q11" s="42"/>
       <c r="V11" s="123"/>
       <c r="Z11" s="16" t="s">
         <v>8</v>
@@ -11942,7 +11887,7 @@
         <v>311</v>
       </c>
       <c r="N12" s="95"/>
-      <c r="Q12" s="41"/>
+      <c r="Q12" s="42"/>
       <c r="V12" s="123"/>
     </row>
     <row r="13" ht="18" customHeight="1" spans="1:22">
@@ -11971,7 +11916,7 @@
         <v>313</v>
       </c>
       <c r="N13" s="95"/>
-      <c r="Q13" s="41"/>
+      <c r="Q13" s="42"/>
       <c r="V13" s="123"/>
     </row>
     <row r="14" ht="18" customHeight="1" spans="1:22">
@@ -11998,7 +11943,7 @@
         <v>315</v>
       </c>
       <c r="N14" s="99"/>
-      <c r="Q14" s="41"/>
+      <c r="Q14" s="42"/>
       <c r="V14" s="123"/>
     </row>
     <row r="15" ht="18" customHeight="1" spans="1:22">
@@ -12023,7 +11968,7 @@
       <c r="L15" s="97"/>
       <c r="M15" s="98"/>
       <c r="N15" s="99"/>
-      <c r="Q15" s="41"/>
+      <c r="Q15" s="42"/>
       <c r="V15" s="123"/>
     </row>
     <row r="16" ht="18" customHeight="1" spans="1:22">
@@ -12045,7 +11990,7 @@
       <c r="L16" s="91"/>
       <c r="M16" s="91"/>
       <c r="N16" s="92"/>
-      <c r="Q16" s="41"/>
+      <c r="Q16" s="42"/>
       <c r="V16" s="123"/>
     </row>
     <row r="17" ht="18" customHeight="1" spans="1:22">
@@ -12076,7 +12021,7 @@
       <c r="N17" s="100" t="s">
         <v>214</v>
       </c>
-      <c r="Q17" s="41"/>
+      <c r="Q17" s="42"/>
       <c r="V17" s="123"/>
     </row>
     <row r="18" ht="18" customHeight="1" spans="1:22">
@@ -12101,7 +12046,7 @@
       <c r="N18" s="95" t="s">
         <v>55</v>
       </c>
-      <c r="Q18" s="41"/>
+      <c r="Q18" s="42"/>
       <c r="V18" s="123"/>
     </row>
     <row r="19" ht="18" customHeight="1" spans="1:22">
@@ -12132,7 +12077,7 @@
       <c r="N19" s="95" t="s">
         <v>224</v>
       </c>
-      <c r="Q19" s="41"/>
+      <c r="Q19" s="42"/>
       <c r="V19" s="123"/>
     </row>
     <row r="20" ht="18" customHeight="1" spans="1:22">
@@ -12161,7 +12106,7 @@
       <c r="N20" s="95" t="s">
         <v>111</v>
       </c>
-      <c r="Q20" s="41"/>
+      <c r="Q20" s="42"/>
       <c r="V20" s="123"/>
     </row>
     <row r="21" ht="18" customHeight="1" spans="1:28">
@@ -12266,18 +12211,18 @@
       </c>
       <c r="E25" s="73"/>
       <c r="I25" s="17"/>
-      <c r="Q25" s="39"/>
-      <c r="R25" s="39" t="s">
+      <c r="Q25" s="40"/>
+      <c r="R25" s="40" t="s">
         <v>255</v>
       </c>
-      <c r="S25" s="39" t="s">
+      <c r="S25" s="40" t="s">
         <v>146</v>
       </c>
-      <c r="T25" s="39" t="s">
+      <c r="T25" s="40" t="s">
         <v>148</v>
       </c>
-      <c r="U25" s="39"/>
-      <c r="V25" s="40" t="s">
+      <c r="U25" s="40"/>
+      <c r="V25" s="41" t="s">
         <v>256</v>
       </c>
     </row>
@@ -12295,14 +12240,14 @@
       <c r="G26" s="16" t="s">
         <v>250</v>
       </c>
-      <c r="Q26" s="41" t="s">
+      <c r="Q26" s="42" t="s">
         <v>167</v>
       </c>
-      <c r="R26" s="39"/>
-      <c r="S26" s="39"/>
-      <c r="T26" s="39"/>
-      <c r="U26" s="39"/>
-      <c r="V26" s="40"/>
+      <c r="R26" s="40"/>
+      <c r="S26" s="40"/>
+      <c r="T26" s="40"/>
+      <c r="U26" s="40"/>
+      <c r="V26" s="41"/>
     </row>
     <row r="27" ht="18" customHeight="1" spans="1:22">
       <c r="A27" s="16">
@@ -12317,14 +12262,14 @@
       <c r="E27" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="Q27" s="41" t="s">
+      <c r="Q27" s="42" t="s">
         <v>167</v>
       </c>
-      <c r="R27" s="39"/>
-      <c r="S27" s="39"/>
-      <c r="T27" s="39"/>
-      <c r="U27" s="39"/>
-      <c r="V27" s="40"/>
+      <c r="R27" s="40"/>
+      <c r="S27" s="40"/>
+      <c r="T27" s="40"/>
+      <c r="U27" s="40"/>
+      <c r="V27" s="41"/>
     </row>
     <row r="28" ht="18" customHeight="1" spans="1:22">
       <c r="A28" s="16">
@@ -12340,14 +12285,14 @@
       <c r="G28" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="Q28" s="41" t="s">
+      <c r="Q28" s="42" t="s">
         <v>167</v>
       </c>
-      <c r="R28" s="39"/>
-      <c r="S28" s="39"/>
-      <c r="T28" s="39"/>
-      <c r="U28" s="39"/>
-      <c r="V28" s="40"/>
+      <c r="R28" s="40"/>
+      <c r="S28" s="40"/>
+      <c r="T28" s="40"/>
+      <c r="U28" s="40"/>
+      <c r="V28" s="41"/>
     </row>
     <row r="29" ht="18" customHeight="1" spans="1:22">
       <c r="A29" s="16">
@@ -12362,12 +12307,12 @@
       <c r="E29" s="17" t="s">
         <v>328</v>
       </c>
-      <c r="Q29" s="39"/>
-      <c r="R29" s="39"/>
-      <c r="S29" s="39"/>
-      <c r="T29" s="39"/>
-      <c r="U29" s="39"/>
-      <c r="V29" s="40"/>
+      <c r="Q29" s="40"/>
+      <c r="R29" s="40"/>
+      <c r="S29" s="40"/>
+      <c r="T29" s="40"/>
+      <c r="U29" s="40"/>
+      <c r="V29" s="41"/>
     </row>
     <row r="30" ht="18" customHeight="1" spans="1:22">
       <c r="A30" s="16">
@@ -12380,12 +12325,12 @@
       <c r="G30" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="Q30" s="39"/>
-      <c r="R30" s="39"/>
-      <c r="S30" s="39"/>
-      <c r="T30" s="39"/>
-      <c r="U30" s="39"/>
-      <c r="V30" s="40"/>
+      <c r="Q30" s="40"/>
+      <c r="R30" s="40"/>
+      <c r="S30" s="40"/>
+      <c r="T30" s="40"/>
+      <c r="U30" s="40"/>
+      <c r="V30" s="41"/>
     </row>
     <row r="31" ht="18" customHeight="1" spans="1:22">
       <c r="A31" s="16">
@@ -12395,12 +12340,12 @@
         <v>265</v>
       </c>
       <c r="E31" s="77"/>
-      <c r="Q31" s="39"/>
-      <c r="R31" s="39"/>
-      <c r="S31" s="39"/>
-      <c r="T31" s="39"/>
-      <c r="U31" s="39"/>
-      <c r="V31" s="40"/>
+      <c r="Q31" s="40"/>
+      <c r="R31" s="40"/>
+      <c r="S31" s="40"/>
+      <c r="T31" s="40"/>
+      <c r="U31" s="40"/>
+      <c r="V31" s="41"/>
     </row>
     <row r="32" ht="18" customHeight="1" spans="1:22">
       <c r="A32" s="16">
@@ -12410,12 +12355,12 @@
         <v>266</v>
       </c>
       <c r="E32" s="79"/>
-      <c r="Q32" s="39"/>
-      <c r="R32" s="39"/>
-      <c r="S32" s="39"/>
-      <c r="T32" s="39"/>
-      <c r="U32" s="39"/>
-      <c r="V32" s="40"/>
+      <c r="Q32" s="40"/>
+      <c r="R32" s="40"/>
+      <c r="S32" s="40"/>
+      <c r="T32" s="40"/>
+      <c r="U32" s="40"/>
+      <c r="V32" s="41"/>
     </row>
     <row r="33" ht="18" customHeight="1" spans="1:22">
       <c r="A33" s="16">
@@ -12436,12 +12381,12 @@
       <c r="L33" s="6"/>
       <c r="M33" s="6"/>
       <c r="N33" s="6"/>
-      <c r="Q33" s="39"/>
-      <c r="R33" s="39"/>
-      <c r="S33" s="39"/>
-      <c r="T33" s="39"/>
-      <c r="U33" s="39"/>
-      <c r="V33" s="40"/>
+      <c r="Q33" s="40"/>
+      <c r="R33" s="40"/>
+      <c r="S33" s="40"/>
+      <c r="T33" s="40"/>
+      <c r="U33" s="40"/>
+      <c r="V33" s="41"/>
     </row>
     <row r="34" ht="18" customHeight="1" spans="2:22">
       <c r="B34" s="8" t="s">
@@ -12462,15 +12407,15 @@
       <c r="I34" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="Q34" s="39"/>
-      <c r="R34" s="39"/>
-      <c r="S34" s="39"/>
-      <c r="T34" s="39"/>
-      <c r="U34" s="39"/>
-      <c r="V34" s="40"/>
+      <c r="Q34" s="40"/>
+      <c r="R34" s="40"/>
+      <c r="S34" s="40"/>
+      <c r="T34" s="40"/>
+      <c r="U34" s="40"/>
+      <c r="V34" s="41"/>
     </row>
     <row r="35" ht="12.6" customHeight="1" spans="18:19">
-      <c r="R35" s="217" t="s">
+      <c r="R35" s="215" t="s">
         <v>273</v>
       </c>
       <c r="S35" s="62" t="s">
@@ -12489,7 +12434,7 @@
       <c r="N37" s="17"/>
     </row>
     <row r="38" spans="2:5">
-      <c r="B38" s="217" t="s">
+      <c r="B38" s="215" t="s">
         <v>205</v>
       </c>
       <c r="D38" s="16"/>
@@ -12517,21 +12462,21 @@
       <c r="A43" s="83" t="s">
         <v>334</v>
       </c>
-      <c r="B43" s="39" t="s">
+      <c r="B43" s="40" t="s">
         <v>335</v>
       </c>
       <c r="C43" s="84"/>
-      <c r="D43" s="39" t="s">
+      <c r="D43" s="40" t="s">
         <v>336</v>
       </c>
-      <c r="E43" s="39" t="s">
+      <c r="E43" s="40" t="s">
         <v>337</v>
       </c>
-      <c r="F43" s="39"/>
-      <c r="G43" s="39" t="s">
+      <c r="F43" s="40"/>
+      <c r="G43" s="40" t="s">
         <v>254</v>
       </c>
-      <c r="H43" s="39"/>
+      <c r="H43" s="40"/>
       <c r="I43" s="103" t="s">
         <v>76</v>
       </c>
@@ -12540,95 +12485,95 @@
       <c r="A44" s="83" t="s">
         <v>338</v>
       </c>
-      <c r="B44" s="39" t="s">
+      <c r="B44" s="40" t="s">
         <v>339</v>
       </c>
-      <c r="C44" s="39"/>
+      <c r="C44" s="40"/>
       <c r="D44" s="84" t="s">
         <v>340</v>
       </c>
-      <c r="E44" s="39" t="s">
+      <c r="E44" s="40" t="s">
         <v>341</v>
       </c>
-      <c r="F44" s="39"/>
+      <c r="F44" s="40"/>
       <c r="G44" s="85">
         <v>44824.7708333333</v>
       </c>
-      <c r="H44" s="39"/>
+      <c r="H44" s="40"/>
       <c r="I44" s="104"/>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="83" t="s">
         <v>342</v>
       </c>
-      <c r="B45" s="39" t="s">
+      <c r="B45" s="40" t="s">
         <v>343</v>
       </c>
-      <c r="C45" s="39"/>
+      <c r="C45" s="40"/>
       <c r="D45" s="84" t="s">
         <v>344</v>
       </c>
-      <c r="E45" s="39" t="s">
+      <c r="E45" s="40" t="s">
         <v>345</v>
       </c>
-      <c r="F45" s="39"/>
-      <c r="G45" s="39"/>
-      <c r="H45" s="39"/>
+      <c r="F45" s="40"/>
+      <c r="G45" s="40"/>
+      <c r="H45" s="40"/>
       <c r="I45" s="103"/>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="83"/>
-      <c r="B46" s="39"/>
-      <c r="C46" s="39"/>
+      <c r="B46" s="40"/>
+      <c r="C46" s="40"/>
       <c r="D46" s="84"/>
-      <c r="E46" s="39"/>
-      <c r="F46" s="39"/>
-      <c r="G46" s="39"/>
-      <c r="H46" s="39"/>
+      <c r="E46" s="40"/>
+      <c r="F46" s="40"/>
+      <c r="G46" s="40"/>
+      <c r="H46" s="40"/>
       <c r="I46" s="103"/>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="83"/>
-      <c r="B47" s="39"/>
-      <c r="C47" s="39"/>
+      <c r="B47" s="40"/>
+      <c r="C47" s="40"/>
       <c r="D47" s="84"/>
-      <c r="E47" s="39"/>
-      <c r="F47" s="39"/>
-      <c r="G47" s="39"/>
-      <c r="H47" s="39"/>
+      <c r="E47" s="40"/>
+      <c r="F47" s="40"/>
+      <c r="G47" s="40"/>
+      <c r="H47" s="40"/>
       <c r="I47" s="103"/>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="83"/>
-      <c r="B48" s="39"/>
-      <c r="C48" s="39"/>
+      <c r="B48" s="40"/>
+      <c r="C48" s="40"/>
       <c r="D48" s="84"/>
-      <c r="E48" s="39"/>
-      <c r="F48" s="39"/>
-      <c r="G48" s="39"/>
-      <c r="H48" s="39"/>
+      <c r="E48" s="40"/>
+      <c r="F48" s="40"/>
+      <c r="G48" s="40"/>
+      <c r="H48" s="40"/>
       <c r="I48" s="103"/>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="83"/>
-      <c r="B49" s="39"/>
-      <c r="C49" s="39"/>
+      <c r="B49" s="40"/>
+      <c r="C49" s="40"/>
       <c r="D49" s="84"/>
-      <c r="E49" s="39"/>
-      <c r="F49" s="39"/>
-      <c r="G49" s="39"/>
-      <c r="H49" s="39"/>
+      <c r="E49" s="40"/>
+      <c r="F49" s="40"/>
+      <c r="G49" s="40"/>
+      <c r="H49" s="40"/>
       <c r="I49" s="103"/>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="83"/>
-      <c r="B50" s="39"/>
-      <c r="C50" s="39"/>
+      <c r="B50" s="40"/>
+      <c r="C50" s="40"/>
       <c r="D50" s="84"/>
-      <c r="E50" s="39"/>
-      <c r="F50" s="39"/>
-      <c r="G50" s="39"/>
-      <c r="H50" s="39"/>
+      <c r="E50" s="40"/>
+      <c r="F50" s="40"/>
+      <c r="G50" s="40"/>
+      <c r="H50" s="40"/>
       <c r="I50" s="103"/>
     </row>
     <row r="51" ht="13.5" spans="1:9">
@@ -12839,7 +12784,7 @@
       <c r="I2" s="65"/>
     </row>
     <row r="3" spans="2:9">
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="22" t="s">
         <v>348</v>
       </c>
       <c r="C3" s="3"/>
@@ -12869,57 +12814,57 @@
       <c r="I4" s="65"/>
     </row>
     <row r="5" spans="2:9">
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="22" t="s">
         <v>199</v>
       </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
       <c r="I5" s="57" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="6" spans="2:9">
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="22" t="s">
         <v>202</v>
       </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
       <c r="I6" s="57" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="7" spans="2:9">
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="22" t="s">
         <v>286</v>
       </c>
-      <c r="C7" s="22"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
       <c r="I7" s="57" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="8" spans="2:9">
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="C8" s="22"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
       <c r="I8" s="57" t="s">
         <v>352</v>
       </c>
@@ -12937,7 +12882,7 @@
       <c r="I9" s="65"/>
     </row>
     <row r="10" spans="2:9">
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="22" t="s">
         <v>220</v>
       </c>
       <c r="C10" s="3"/>
@@ -12967,7 +12912,7 @@
       <c r="I11" s="65"/>
     </row>
     <row r="12" spans="2:9">
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="22" t="s">
         <v>223</v>
       </c>
       <c r="C12" s="3"/>
@@ -12987,11 +12932,11 @@
       </c>
     </row>
     <row r="13" spans="2:9">
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="22" t="s">
         <v>230</v>
       </c>
       <c r="C13" s="3"/>
-      <c r="I13" s="47"/>
+      <c r="I13" s="48"/>
     </row>
     <row r="14" spans="2:9">
       <c r="B14" s="58" t="s">
@@ -13006,7 +12951,7 @@
       <c r="I14" s="65"/>
     </row>
     <row r="15" spans="2:9">
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="22" t="s">
         <v>269</v>
       </c>
       <c r="C15" s="60"/>
@@ -13024,14 +12969,14 @@
       <c r="I15" s="67"/>
     </row>
     <row r="16" spans="2:9">
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="22" t="s">
         <v>244</v>
       </c>
-      <c r="C16" s="22"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="24"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="25"/>
       <c r="H16" t="s">
         <v>58</v>
       </c>
@@ -13052,7 +12997,7 @@
       <c r="I17" s="65"/>
     </row>
     <row r="18" spans="2:9">
-      <c r="B18" s="21" t="s">
+      <c r="B18" s="22" t="s">
         <v>63</v>
       </c>
       <c r="C18" t="s">
@@ -13061,31 +13006,31 @@
       <c r="D18" t="s">
         <v>363</v>
       </c>
-      <c r="I18" s="47"/>
+      <c r="I18" s="48"/>
     </row>
     <row r="19" spans="2:9">
       <c r="B19" s="61"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
-      <c r="I19" s="47"/>
+      <c r="I19" s="48"/>
     </row>
     <row r="20" spans="2:9">
       <c r="B20" s="61"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
-      <c r="I20" s="47"/>
+      <c r="I20" s="48"/>
     </row>
     <row r="21" spans="2:9">
       <c r="B21" s="61"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
-      <c r="I21" s="47"/>
+      <c r="I21" s="48"/>
     </row>
     <row r="22" spans="2:9">
-      <c r="B22" s="217" t="s">
+      <c r="B22" s="215" t="s">
         <v>205</v>
       </c>
-      <c r="I22" s="47"/>
+      <c r="I22" s="48"/>
     </row>
     <row r="23" spans="2:9">
       <c r="B23" s="58" t="s">
@@ -13100,7 +13045,7 @@
       <c r="I23" s="65"/>
     </row>
     <row r="24" spans="2:9">
-      <c r="B24" s="21" t="s">
+      <c r="B24" s="22" t="s">
         <v>365</v>
       </c>
       <c r="C24" s="3"/>
@@ -13127,7 +13072,7 @@
       <c r="I25" s="65"/>
     </row>
     <row r="26" spans="2:9">
-      <c r="B26" s="21" t="s">
+      <c r="B26" s="22" t="s">
         <v>369</v>
       </c>
       <c r="C26" s="3"/>
@@ -13145,7 +13090,7 @@
       <c r="I26" s="66"/>
     </row>
     <row r="27" spans="2:9">
-      <c r="B27" s="21" t="s">
+      <c r="B27" s="22" t="s">
         <v>373</v>
       </c>
       <c r="C27" s="3"/>
@@ -13163,7 +13108,7 @@
       <c r="I27" s="66"/>
     </row>
     <row r="28" spans="2:9">
-      <c r="B28" s="21" t="s">
+      <c r="B28" s="22" t="s">
         <v>377</v>
       </c>
       <c r="C28" s="3"/>
@@ -13193,48 +13138,48 @@
       <c r="I29" s="65"/>
     </row>
     <row r="30" spans="2:9">
-      <c r="B30" s="21" t="s">
+      <c r="B30" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="C30" s="30"/>
-      <c r="D30" s="31"/>
-      <c r="E30" s="32"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="33"/>
       <c r="F30" t="s">
         <v>330</v>
       </c>
-      <c r="G30" s="30"/>
-      <c r="H30" s="31"/>
-      <c r="I30" s="48"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="32"/>
+      <c r="I30" s="49"/>
     </row>
     <row r="31" spans="2:9">
-      <c r="B31" s="21"/>
-      <c r="C31" s="33"/>
-      <c r="E31" s="34"/>
-      <c r="G31" s="33"/>
-      <c r="I31" s="47"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="34"/>
+      <c r="E31" s="35"/>
+      <c r="G31" s="34"/>
+      <c r="I31" s="48"/>
     </row>
     <row r="32" spans="2:9">
-      <c r="B32" s="21" t="s">
+      <c r="B32" s="22" t="s">
         <v>382</v>
       </c>
-      <c r="C32" s="30"/>
-      <c r="D32" s="31"/>
-      <c r="E32" s="31"/>
-      <c r="F32" s="31"/>
-      <c r="G32" s="31"/>
-      <c r="H32" s="31"/>
-      <c r="I32" s="48"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="32"/>
+      <c r="H32" s="32"/>
+      <c r="I32" s="49"/>
     </row>
     <row r="33" ht="15" spans="2:9">
-      <c r="B33" s="37"/>
+      <c r="B33" s="38"/>
       <c r="C33" s="63"/>
-      <c r="D33" s="38"/>
-      <c r="E33" s="38"/>
-      <c r="F33" s="38"/>
-      <c r="I33" s="47"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="39"/>
+      <c r="F33" s="39"/>
+      <c r="I33" s="48"/>
     </row>
     <row r="34" spans="2:9">
-      <c r="B34" s="21" t="s">
+      <c r="B34" s="22" t="s">
         <v>383</v>
       </c>
       <c r="C34" t="s">
@@ -13275,8 +13220,8 @@
   <sheetPr/>
   <dimension ref="A1:O71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -13302,10 +13247,10 @@
       </c>
     </row>
     <row r="3" spans="10:11">
-      <c r="J3" s="43" t="s">
+      <c r="J3" s="44" t="s">
         <v>391</v>
       </c>
-      <c r="K3" s="44" t="s">
+      <c r="K3" s="45" t="s">
         <v>392</v>
       </c>
     </row>
@@ -13372,7 +13317,7 @@
       <c r="I5" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="J5" s="45" t="s">
+      <c r="J5" s="46" t="s">
         <v>410</v>
       </c>
       <c r="K5" s="3" t="s">
@@ -13423,79 +13368,89 @@
       <c r="F9" s="20"/>
       <c r="G9" s="20"/>
       <c r="H9" s="20"/>
-      <c r="I9" s="46"/>
-    </row>
-    <row r="10" spans="3:9">
-      <c r="C10" s="21" t="s">
+      <c r="I9" s="47"/>
+    </row>
+    <row r="10" spans="2:9">
+      <c r="B10" s="21" t="s">
+        <v>417</v>
+      </c>
+      <c r="C10" s="22" t="s">
         <v>393</v>
       </c>
-      <c r="D10" s="22"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="24"/>
-      <c r="I10" s="47"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="25"/>
+      <c r="I10" s="48"/>
     </row>
     <row r="11" spans="3:9">
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="22" t="s">
+        <v>418</v>
+      </c>
+      <c r="D11" s="26"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="49"/>
+    </row>
+    <row r="12" spans="3:9">
+      <c r="C12" s="22" t="s">
+        <v>419</v>
+      </c>
+      <c r="D12" s="28" t="s">
+        <v>420</v>
+      </c>
+      <c r="F12" t="s">
+        <v>421</v>
+      </c>
+      <c r="G12" s="23"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="50" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10">
+      <c r="B13" s="21" t="s">
         <v>417</v>
       </c>
-      <c r="D11" s="25"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="48"/>
-    </row>
-    <row r="12" spans="3:9">
-      <c r="C12" s="21" t="s">
-        <v>418</v>
-      </c>
-      <c r="D12" s="27" t="s">
-        <v>419</v>
-      </c>
-      <c r="F12" t="s">
-        <v>420</v>
-      </c>
-      <c r="G12" s="22"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="49" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="13" spans="3:10">
-      <c r="C13" s="21" t="s">
-        <v>422</v>
-      </c>
-      <c r="D13" s="27" t="s">
+      <c r="C13" s="22" t="s">
         <v>423</v>
       </c>
-      <c r="I13" s="47"/>
-      <c r="J13" s="50" t="s">
+      <c r="D13" s="28" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="14" ht="15" spans="3:10">
-      <c r="C14" s="21" t="s">
+      <c r="I13" s="48"/>
+      <c r="J13" s="21" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="14" ht="15" spans="2:10">
+      <c r="B14" s="21" t="s">
+        <v>417</v>
+      </c>
+      <c r="C14" s="22" t="s">
         <v>397</v>
       </c>
       <c r="D14" t="s">
+        <v>426</v>
+      </c>
+      <c r="I14" s="48"/>
+      <c r="J14" s="21" t="s">
         <v>425</v>
       </c>
-      <c r="I14" s="47"/>
-      <c r="J14" s="50" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="15" spans="3:14">
-      <c r="C15" s="21" t="s">
-        <v>426</v>
+    </row>
+    <row r="15" spans="2:14">
+      <c r="B15" s="21"/>
+      <c r="C15" s="22" t="s">
+        <v>427</v>
       </c>
       <c r="D15" t="s">
-        <v>427</v>
-      </c>
-      <c r="I15" s="47"/>
-      <c r="J15" s="50" t="s">
         <v>428</v>
+      </c>
+      <c r="I15" s="48"/>
+      <c r="J15" s="21" t="s">
+        <v>429</v>
       </c>
       <c r="K15" s="51"/>
       <c r="L15" s="52"/>
@@ -13503,177 +13458,189 @@
       <c r="N15" s="53"/>
     </row>
     <row r="16" spans="3:14">
-      <c r="C16" s="28" t="s">
+      <c r="C16" s="29" t="s">
+        <v>430</v>
+      </c>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="54"/>
+      <c r="K16" s="22" t="s">
+        <v>431</v>
+      </c>
+      <c r="N16" s="48"/>
+    </row>
+    <row r="17" spans="2:14">
+      <c r="B17" s="21" t="s">
+        <v>417</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>395</v>
+      </c>
+      <c r="D17" s="23"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="50" t="s">
+        <v>432</v>
+      </c>
+      <c r="K17" s="22" t="s">
+        <v>433</v>
+      </c>
+      <c r="N17" s="48"/>
+    </row>
+    <row r="18" spans="2:15">
+      <c r="B18" s="21" t="s">
+        <v>417</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>434</v>
+      </c>
+      <c r="D18" s="31"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="50" t="s">
+        <v>432</v>
+      </c>
+      <c r="K18" s="22" t="s">
+        <v>435</v>
+      </c>
+      <c r="N18" s="48"/>
+      <c r="O18" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14">
+      <c r="C19" s="22"/>
+      <c r="D19" s="34"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="48"/>
+      <c r="K19" s="22"/>
+      <c r="N19" s="48"/>
+    </row>
+    <row r="20" spans="3:14">
+      <c r="C20" s="22"/>
+      <c r="D20" s="34"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="48"/>
+      <c r="K20" s="22"/>
+      <c r="N20" s="48"/>
+    </row>
+    <row r="21" spans="3:14">
+      <c r="C21" s="22"/>
+      <c r="D21" s="34"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="48"/>
+      <c r="K21" s="22"/>
+      <c r="N21" s="48"/>
+    </row>
+    <row r="22" spans="3:14">
+      <c r="C22" s="22"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="48"/>
+      <c r="K22" s="22"/>
+      <c r="N22" s="48"/>
+    </row>
+    <row r="23" spans="2:14">
+      <c r="B23" s="21" t="s">
+        <v>417</v>
+      </c>
+      <c r="C23" s="22" t="s">
+        <v>437</v>
+      </c>
+      <c r="D23" s="31"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="48"/>
+      <c r="K23" s="22"/>
+      <c r="N23" s="48"/>
+    </row>
+    <row r="24" spans="3:14">
+      <c r="C24" s="22"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="48"/>
+      <c r="K24" s="22"/>
+      <c r="N24" s="48"/>
+    </row>
+    <row r="25" ht="15" spans="3:14">
+      <c r="C25" s="22" t="s">
+        <v>438</v>
+      </c>
+      <c r="D25" s="31"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="33"/>
+      <c r="I25" s="48"/>
+      <c r="K25" s="38"/>
+      <c r="L25" s="39"/>
+      <c r="M25" s="39"/>
+      <c r="N25" s="55"/>
+    </row>
+    <row r="26" spans="3:9">
+      <c r="C26" s="22"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="36"/>
+      <c r="I26" s="48"/>
+    </row>
+    <row r="27" spans="3:9">
+      <c r="C27" s="22" t="s">
+        <v>439</v>
+      </c>
+      <c r="D27" s="23" t="s">
+        <v>415</v>
+      </c>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="48"/>
+    </row>
+    <row r="28" spans="3:10">
+      <c r="C28" s="22" t="s">
+        <v>440</v>
+      </c>
+      <c r="D28" t="s">
+        <v>441</v>
+      </c>
+      <c r="I28" s="48"/>
+      <c r="J28" s="21" t="s">
         <v>429</v>
       </c>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="54"/>
-      <c r="K16" s="21" t="s">
-        <v>430</v>
-      </c>
-      <c r="N16" s="47"/>
-    </row>
-    <row r="17" spans="3:14">
-      <c r="C17" s="21" t="s">
-        <v>395</v>
-      </c>
-      <c r="D17" s="22"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="49" t="s">
-        <v>431</v>
-      </c>
-      <c r="K17" s="21" t="s">
-        <v>432</v>
-      </c>
-      <c r="N17" s="47"/>
-    </row>
-    <row r="18" spans="3:15">
-      <c r="C18" s="21" t="s">
-        <v>433</v>
-      </c>
-      <c r="D18" s="30"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="49" t="s">
-        <v>431</v>
-      </c>
-      <c r="K18" s="21" t="s">
-        <v>434</v>
-      </c>
-      <c r="N18" s="47"/>
-      <c r="O18" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="19" spans="3:14">
-      <c r="C19" s="21"/>
-      <c r="D19" s="33"/>
-      <c r="H19" s="34"/>
-      <c r="I19" s="47"/>
-      <c r="K19" s="21"/>
-      <c r="N19" s="47"/>
-    </row>
-    <row r="20" spans="3:14">
-      <c r="C20" s="21"/>
-      <c r="D20" s="33"/>
-      <c r="H20" s="34"/>
-      <c r="I20" s="47"/>
-      <c r="K20" s="21"/>
-      <c r="N20" s="47"/>
-    </row>
-    <row r="21" spans="3:14">
-      <c r="C21" s="21"/>
-      <c r="D21" s="33"/>
-      <c r="H21" s="34"/>
-      <c r="I21" s="47"/>
-      <c r="K21" s="21"/>
-      <c r="N21" s="47"/>
-    </row>
-    <row r="22" spans="3:14">
-      <c r="C22" s="21"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="35"/>
-      <c r="I22" s="47"/>
-      <c r="K22" s="21"/>
-      <c r="N22" s="47"/>
-    </row>
-    <row r="23" spans="3:14">
-      <c r="C23" s="21" t="s">
-        <v>436</v>
-      </c>
-      <c r="D23" s="30"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="47"/>
-      <c r="K23" s="21"/>
-      <c r="N23" s="47"/>
-    </row>
-    <row r="24" spans="3:14">
-      <c r="C24" s="21"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="35"/>
-      <c r="I24" s="47"/>
-      <c r="K24" s="21"/>
-      <c r="N24" s="47"/>
-    </row>
-    <row r="25" ht="15" spans="3:14">
-      <c r="C25" s="21" t="s">
-        <v>437</v>
-      </c>
-      <c r="D25" s="30"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="32"/>
-      <c r="I25" s="47"/>
-      <c r="K25" s="37"/>
-      <c r="L25" s="38"/>
-      <c r="M25" s="38"/>
-      <c r="N25" s="55"/>
-    </row>
-    <row r="26" spans="3:9">
-      <c r="C26" s="21"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="35"/>
-      <c r="I26" s="47"/>
-    </row>
-    <row r="27" spans="3:9">
-      <c r="C27" s="21" t="s">
-        <v>438</v>
-      </c>
-      <c r="D27" s="22" t="s">
-        <v>415</v>
-      </c>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="47"/>
-    </row>
-    <row r="28" spans="3:9">
-      <c r="C28" s="21" t="s">
-        <v>439</v>
-      </c>
-      <c r="D28" t="s">
-        <v>440</v>
-      </c>
-      <c r="I28" s="47"/>
     </row>
     <row r="29" spans="3:9">
-      <c r="C29" s="21" t="s">
-        <v>441</v>
+      <c r="C29" s="22" t="s">
+        <v>442</v>
       </c>
       <c r="D29" t="s">
-        <v>442</v>
-      </c>
-      <c r="E29" s="36" t="s">
         <v>443</v>
       </c>
-      <c r="I29" s="47"/>
+      <c r="E29" s="37" t="s">
+        <v>444</v>
+      </c>
+      <c r="I29" s="48"/>
     </row>
     <row r="30" spans="3:9">
-      <c r="C30" s="21"/>
-      <c r="H30" s="36" t="s">
+      <c r="C30" s="22"/>
+      <c r="H30" s="37" t="s">
         <v>279</v>
       </c>
       <c r="I30" s="56" t="s">
@@ -13681,282 +13648,282 @@
       </c>
     </row>
     <row r="31" spans="3:9">
-      <c r="C31" s="21"/>
-      <c r="I31" s="47"/>
+      <c r="C31" s="22"/>
+      <c r="I31" s="48"/>
     </row>
     <row r="32" spans="3:9">
-      <c r="C32" s="21"/>
-      <c r="I32" s="47"/>
+      <c r="C32" s="22"/>
+      <c r="I32" s="48"/>
     </row>
     <row r="33" spans="3:9">
-      <c r="C33" s="21"/>
-      <c r="I33" s="47"/>
+      <c r="C33" s="22"/>
+      <c r="I33" s="48"/>
     </row>
     <row r="34" ht="15" spans="3:9">
-      <c r="C34" s="37"/>
-      <c r="D34" s="38"/>
-      <c r="E34" s="38"/>
-      <c r="F34" s="38"/>
-      <c r="G34" s="38"/>
-      <c r="H34" s="38"/>
+      <c r="C34" s="38"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="39"/>
+      <c r="F34" s="39"/>
+      <c r="G34" s="39"/>
+      <c r="H34" s="39"/>
       <c r="I34" s="55"/>
     </row>
     <row r="39" ht="15"/>
     <row r="40" spans="1:9">
       <c r="A40" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C40" s="19" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D40" s="20"/>
       <c r="E40" s="20"/>
       <c r="F40" s="20"/>
       <c r="G40" s="20"/>
       <c r="H40" s="20"/>
-      <c r="I40" s="46"/>
+      <c r="I40" s="47"/>
     </row>
     <row r="41" spans="3:9">
-      <c r="C41" s="21" t="s">
-        <v>445</v>
-      </c>
-      <c r="D41" s="22" t="s">
+      <c r="C41" s="22" t="s">
         <v>446</v>
       </c>
-      <c r="E41" s="23"/>
-      <c r="F41" s="23"/>
-      <c r="G41" s="23"/>
-      <c r="H41" s="24"/>
-      <c r="I41" s="47"/>
+      <c r="D41" s="23" t="s">
+        <v>447</v>
+      </c>
+      <c r="E41" s="24"/>
+      <c r="F41" s="24"/>
+      <c r="G41" s="24"/>
+      <c r="H41" s="25"/>
+      <c r="I41" s="48"/>
     </row>
     <row r="42" spans="3:9">
-      <c r="C42" s="21" t="s">
+      <c r="C42" s="22" t="s">
         <v>395</v>
       </c>
-      <c r="D42" s="22"/>
-      <c r="E42" s="23"/>
-      <c r="F42" s="23"/>
-      <c r="G42" s="23"/>
-      <c r="H42" s="24"/>
-      <c r="I42" s="47"/>
+      <c r="D42" s="23"/>
+      <c r="E42" s="24"/>
+      <c r="F42" s="24"/>
+      <c r="G42" s="24"/>
+      <c r="H42" s="25"/>
+      <c r="I42" s="48"/>
     </row>
     <row r="43" spans="3:9">
-      <c r="C43" s="21" t="s">
-        <v>433</v>
-      </c>
-      <c r="D43" s="30"/>
-      <c r="E43" s="31"/>
-      <c r="F43" s="31"/>
-      <c r="G43" s="31"/>
-      <c r="H43" s="32"/>
-      <c r="I43" s="47"/>
+      <c r="C43" s="22" t="s">
+        <v>434</v>
+      </c>
+      <c r="D43" s="31"/>
+      <c r="E43" s="32"/>
+      <c r="F43" s="32"/>
+      <c r="G43" s="32"/>
+      <c r="H43" s="33"/>
+      <c r="I43" s="48"/>
     </row>
     <row r="44" spans="3:9">
-      <c r="C44" s="21"/>
-      <c r="D44" s="33"/>
-      <c r="H44" s="34"/>
-      <c r="I44" s="47"/>
+      <c r="C44" s="22"/>
+      <c r="D44" s="34"/>
+      <c r="H44" s="35"/>
+      <c r="I44" s="48"/>
     </row>
     <row r="45" spans="3:9">
-      <c r="C45" s="21"/>
-      <c r="D45" s="33"/>
-      <c r="H45" s="34"/>
-      <c r="I45" s="47"/>
+      <c r="C45" s="22"/>
+      <c r="D45" s="34"/>
+      <c r="H45" s="35"/>
+      <c r="I45" s="48"/>
     </row>
     <row r="46" spans="3:9">
-      <c r="C46" s="21"/>
-      <c r="D46" s="33"/>
-      <c r="H46" s="34"/>
-      <c r="I46" s="47"/>
+      <c r="C46" s="22"/>
+      <c r="D46" s="34"/>
+      <c r="H46" s="35"/>
+      <c r="I46" s="48"/>
     </row>
     <row r="47" spans="3:9">
-      <c r="C47" s="21"/>
-      <c r="D47" s="25"/>
-      <c r="E47" s="26"/>
-      <c r="F47" s="26"/>
-      <c r="G47" s="26"/>
-      <c r="H47" s="35"/>
-      <c r="I47" s="47"/>
+      <c r="C47" s="22"/>
+      <c r="D47" s="26"/>
+      <c r="E47" s="27"/>
+      <c r="F47" s="27"/>
+      <c r="G47" s="27"/>
+      <c r="H47" s="36"/>
+      <c r="I47" s="48"/>
     </row>
     <row r="48" spans="3:9">
-      <c r="C48" s="21" t="s">
-        <v>436</v>
-      </c>
-      <c r="D48" s="30"/>
-      <c r="E48" s="31"/>
-      <c r="F48" s="31"/>
-      <c r="G48" s="31"/>
-      <c r="H48" s="32"/>
-      <c r="I48" s="47"/>
+      <c r="C48" s="22" t="s">
+        <v>437</v>
+      </c>
+      <c r="D48" s="31"/>
+      <c r="E48" s="32"/>
+      <c r="F48" s="32"/>
+      <c r="G48" s="32"/>
+      <c r="H48" s="33"/>
+      <c r="I48" s="48"/>
     </row>
     <row r="49" spans="3:9">
-      <c r="C49" s="21"/>
-      <c r="D49" s="25"/>
-      <c r="E49" s="26"/>
-      <c r="F49" s="26"/>
-      <c r="G49" s="26"/>
-      <c r="H49" s="35"/>
-      <c r="I49" s="47"/>
+      <c r="C49" s="22"/>
+      <c r="D49" s="26"/>
+      <c r="E49" s="27"/>
+      <c r="F49" s="27"/>
+      <c r="G49" s="27"/>
+      <c r="H49" s="36"/>
+      <c r="I49" s="48"/>
     </row>
     <row r="50" spans="3:9">
-      <c r="C50" s="21" t="s">
-        <v>437</v>
-      </c>
-      <c r="D50" s="30"/>
-      <c r="E50" s="31"/>
-      <c r="F50" s="31"/>
-      <c r="G50" s="31"/>
-      <c r="H50" s="32"/>
-      <c r="I50" s="47"/>
+      <c r="C50" s="22" t="s">
+        <v>438</v>
+      </c>
+      <c r="D50" s="31"/>
+      <c r="E50" s="32"/>
+      <c r="F50" s="32"/>
+      <c r="G50" s="32"/>
+      <c r="H50" s="33"/>
+      <c r="I50" s="48"/>
     </row>
     <row r="51" spans="3:9">
-      <c r="C51" s="21"/>
-      <c r="D51" s="25"/>
-      <c r="E51" s="26"/>
-      <c r="F51" s="26"/>
-      <c r="G51" s="26"/>
-      <c r="H51" s="35"/>
-      <c r="I51" s="47"/>
+      <c r="C51" s="22"/>
+      <c r="D51" s="26"/>
+      <c r="E51" s="27"/>
+      <c r="F51" s="27"/>
+      <c r="G51" s="27"/>
+      <c r="H51" s="36"/>
+      <c r="I51" s="48"/>
     </row>
     <row r="52" spans="3:9">
-      <c r="C52" s="21" t="s">
-        <v>438</v>
-      </c>
-      <c r="D52" s="22" t="s">
+      <c r="C52" s="22" t="s">
+        <v>439</v>
+      </c>
+      <c r="D52" s="23" t="s">
         <v>415</v>
       </c>
-      <c r="E52" s="23"/>
-      <c r="F52" s="23"/>
-      <c r="G52" s="23"/>
-      <c r="H52" s="24"/>
-      <c r="I52" s="47"/>
+      <c r="E52" s="24"/>
+      <c r="F52" s="24"/>
+      <c r="G52" s="24"/>
+      <c r="H52" s="25"/>
+      <c r="I52" s="48"/>
     </row>
     <row r="53" spans="3:9">
-      <c r="C53" s="21"/>
-      <c r="I53" s="47"/>
+      <c r="C53" s="22"/>
+      <c r="I53" s="48"/>
     </row>
     <row r="54" spans="3:9">
-      <c r="C54" s="21" t="s">
-        <v>447</v>
-      </c>
-      <c r="D54" s="39"/>
-      <c r="E54" s="39" t="s">
+      <c r="C54" s="22" t="s">
+        <v>448</v>
+      </c>
+      <c r="D54" s="40"/>
+      <c r="E54" s="40" t="s">
         <v>255</v>
       </c>
-      <c r="F54" s="39" t="s">
+      <c r="F54" s="40" t="s">
         <v>146</v>
       </c>
-      <c r="G54" s="39" t="s">
+      <c r="G54" s="40" t="s">
         <v>148</v>
       </c>
-      <c r="H54" s="40" t="s">
+      <c r="H54" s="41" t="s">
         <v>256</v>
       </c>
-      <c r="I54" s="47"/>
+      <c r="I54" s="48"/>
     </row>
     <row r="55" spans="3:9">
-      <c r="C55" s="21"/>
-      <c r="D55" s="41" t="s">
+      <c r="C55" s="22"/>
+      <c r="D55" s="42" t="s">
         <v>167</v>
       </c>
-      <c r="E55" s="39"/>
-      <c r="F55" s="39"/>
-      <c r="G55" s="39"/>
-      <c r="H55" s="40"/>
-      <c r="I55" s="47"/>
+      <c r="E55" s="40"/>
+      <c r="F55" s="40"/>
+      <c r="G55" s="40"/>
+      <c r="H55" s="41"/>
+      <c r="I55" s="48"/>
     </row>
     <row r="56" spans="3:9">
-      <c r="C56" s="21"/>
-      <c r="D56" s="41" t="s">
+      <c r="C56" s="22"/>
+      <c r="D56" s="42" t="s">
         <v>167</v>
       </c>
-      <c r="E56" s="39"/>
-      <c r="F56" s="39"/>
-      <c r="G56" s="39"/>
-      <c r="H56" s="40"/>
-      <c r="I56" s="47"/>
+      <c r="E56" s="40"/>
+      <c r="F56" s="40"/>
+      <c r="G56" s="40"/>
+      <c r="H56" s="41"/>
+      <c r="I56" s="48"/>
     </row>
     <row r="57" spans="3:9">
-      <c r="C57" s="21"/>
-      <c r="D57" s="41" t="s">
+      <c r="C57" s="22"/>
+      <c r="D57" s="42" t="s">
         <v>167</v>
       </c>
-      <c r="E57" s="39"/>
-      <c r="F57" s="39"/>
-      <c r="G57" s="39"/>
-      <c r="H57" s="40"/>
-      <c r="I57" s="47"/>
+      <c r="E57" s="40"/>
+      <c r="F57" s="40"/>
+      <c r="G57" s="40"/>
+      <c r="H57" s="41"/>
+      <c r="I57" s="48"/>
     </row>
     <row r="58" spans="3:9">
-      <c r="C58" s="21"/>
-      <c r="D58" s="39"/>
-      <c r="E58" s="39"/>
-      <c r="F58" s="39"/>
-      <c r="G58" s="39"/>
-      <c r="H58" s="39"/>
-      <c r="I58" s="47"/>
+      <c r="C58" s="22"/>
+      <c r="D58" s="40"/>
+      <c r="E58" s="40"/>
+      <c r="F58" s="40"/>
+      <c r="G58" s="40"/>
+      <c r="H58" s="40"/>
+      <c r="I58" s="48"/>
     </row>
     <row r="59" spans="3:9">
-      <c r="C59" s="21"/>
-      <c r="I59" s="47"/>
+      <c r="C59" s="22"/>
+      <c r="I59" s="48"/>
     </row>
     <row r="60" spans="3:9">
-      <c r="C60" s="21" t="s">
-        <v>448</v>
-      </c>
-      <c r="D60" s="42" t="s">
+      <c r="C60" s="22" t="s">
         <v>449</v>
       </c>
-      <c r="H60" s="36" t="s">
+      <c r="D60" s="43" t="s">
         <v>450</v>
+      </c>
+      <c r="H60" s="37" t="s">
+        <v>451</v>
       </c>
       <c r="I60" s="57" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="61" spans="3:9">
-      <c r="C61" s="21"/>
-      <c r="I61" s="47"/>
+      <c r="C61" s="22"/>
+      <c r="I61" s="48"/>
     </row>
     <row r="62" ht="15" spans="3:9">
-      <c r="C62" s="37"/>
-      <c r="D62" s="38"/>
-      <c r="E62" s="38"/>
-      <c r="F62" s="38"/>
-      <c r="G62" s="38"/>
-      <c r="H62" s="38"/>
+      <c r="C62" s="38"/>
+      <c r="D62" s="39"/>
+      <c r="E62" s="39"/>
+      <c r="F62" s="39"/>
+      <c r="G62" s="39"/>
+      <c r="H62" s="39"/>
       <c r="I62" s="55"/>
     </row>
     <row r="65" spans="1:11">
       <c r="A65" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C65" s="18" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D65" s="18" t="s">
         <v>395</v>
       </c>
       <c r="E65" s="18" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="F65" s="18" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="G65" s="18" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H65" s="18" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="I65" s="18" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="J65" s="18" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="K65" s="18" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="66" spans="3:11">
@@ -14051,31 +14018,31 @@
   <sheetData>
     <row r="2" spans="15:16">
       <c r="O2" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="P2" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="4" spans="15:16">
       <c r="O4" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="P4" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="5" spans="15:15">
       <c r="O5" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="7" spans="15:16">
       <c r="O7" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="P7" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
   </sheetData>
@@ -14120,7 +14087,7 @@
   <sheetData>
     <row r="1" spans="12:12">
       <c r="L1" s="15" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -14140,19 +14107,19 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="8" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>213</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>270</v>
@@ -14197,10 +14164,10 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="6" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
@@ -14216,13 +14183,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>331</v>
@@ -14234,7 +14201,7 @@
         <v>76</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -14242,7 +14209,7 @@
         <v>73</v>
       </c>
       <c r="B9" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C9">
         <v>995642</v>
@@ -14257,7 +14224,7 @@
         <v>1.5</v>
       </c>
       <c r="G9" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H9" s="14">
         <v>44562</v>
@@ -14265,7 +14232,7 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="15" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
@@ -14278,23 +14245,23 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="8" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>269</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="F13" s="8"/>
       <c r="G13" s="8" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H13" s="8" t="s">
         <v>76</v>
@@ -14330,7 +14297,7 @@
         <v>274</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C15" s="16" t="s">
         <v>276</v>
